--- a/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
+++ b/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
+++ b/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00291369</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>PERCY QUATTRO: Medroxyprogesterone, Interferon Alpha-2a, Interleukin 2 or Combination of Both Cytokines in Patients With Metastatic Renal Carcinoma of Intermediate Prognosis</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00409071</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Placebo-controlled Evaluation of Homeopathic Remedy (Cocculine®) Efficacy in the Management of Nausea After Adjuvant Chemotherapy in Non Metastatic Breast Cancer.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -596,36 +611,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT01070537</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>INVIBO: Evaluation of the Feasibility and Tolerance of an Intubation Procedure Performed by Means of the Bonfils Fiberscope in Awake Patients With Predicted Difficult Intubation in the Context of ENT Cancer Surgery</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>INVIBO</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -644,36 +664,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00794261</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Assessment of the Efficacy and Tolerance, and Health Economic Study of a Single Administration of Pegfilgrastim in Lymphoma or Myeloma Patients Treated With Intensive Chemotherapy and Autologous Peripheral Stem Cell Transplantation</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>PALM</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -692,32 +717,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT00973882</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Phase II Multicenter Study Evaluating the Efficacy of Carboplatin-Etoposide Combination in Hormone-resistant Prostate Cancers With Neuroendocrine Differentiation.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -736,36 +766,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00636467</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Evaluation of the Technique of Axillary Sentinel Lymph Node (SLN) Detection in Breast Cancers &gt; 2 cm</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>GAS2PLUS</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -782,38 +817,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2009-011280-37</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Efficacy and safety assessment of oral LBH589 in adult patients with advanced soft tissue sarcoma after doxorubicin failure: an open-label, multi-centric phase II study</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>ESTIM</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -828,36 +868,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT00619268</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Open Label, Randomized, Multicenter Phase II Study of a Combination of Torisel® (Temsirolimus) and Avastin® (Bevacizumab) Versus Sutent® (Sunitinib) and Versus a Combination of Avastin® (Bevacizumab) and Roféron® (Interferon Alpha-2a) in First-line Treatment of Patients With Metastatic Renal Cell Carcinoma.</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>TORAVA</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -876,36 +921,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT01136499</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Efficacy and Safety Assessment of Oral LBH589 in Adult Patients With Advanced Soft Tissue Sarcoma After Pre-treatment Failure: an Open-label, Multicenter Phase II Study</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>ESTIM-LBH</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -924,36 +974,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT01202032</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Bevacizumab in Patients With Metastatic Renal Cell Carcinoma or Others Advanced Solid Tumors</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>PARASOL</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -972,40 +1027,45 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT01261429</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2010-018869-29</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Phase II Study of Nilotinib Efficacy in Pigmented Villo-Nodular Synovitis/ Tenosynovial Giant Cell Tumour (PVNS/TGCT)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>PVNS</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1024,32 +1084,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT00367861</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>A Prospective Multicentric Randomized Study of Glivec® in Patients With Advanced Gastrointestinal Stromal Tumors Expressing C-kit Comparing Treatment Interruption After 5 Years vs Treatment Maintenance</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1068,32 +1133,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT00905281</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Randomized Controlled Trial Assessing the Impact of Routine "Oncologist-supportive Care Team" Consultation on the Use of an Additional Line of Chemotherapy in Metastatic Breast Cancer Patients</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1112,36 +1182,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT01331772</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Randomized Controlled Study Assessing the Feasibility and the Medico-economic Impact of Nutritional Intervention in Women With Breast Cancer Under Adjuvant Chemotherapy</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>PASAPAS</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1160,32 +1235,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT01368107</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>A Randomised, Multicentric, Phase 2a Study Evaluating the Impact of an Immunotherapy by IL-7 on CD4 Lymphopenia, Risks of Severe Haematological Toxicity and Tumor Progression in Metastatic Breast Cancer Patients</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1204,32 +1284,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01696630</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Phase II Study, Randomized, Monocentric, Single-blind, Comparing the Efficacy of Xenon and Desflurane, in Association With a Thoracic Epidural Analgesia in the Maintenance Phase of a Colorectal Oncologic Surgery</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1248,32 +1333,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT00349102</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Evaluation of the Interest of Breath Holding for the Prevention of Radiation Pneumonitis Following Conformal Radiation Therapy</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1292,40 +1382,45 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT01314300</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2010-023461-22</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>VERSATIS - Efficacy and Safety of Lidocaine 5% Plasters (Versatis® 5%) in Child, Adolescents and Young Adults With Neuropathic Pains or Vasoocclusive Sickle Cell Crisis Pains</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>VERSATIS</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1344,36 +1439,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT01405430</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Exploration of New Biologic Factors' Predictive Value , Especially Circulating VE-cadherin in Metastatic Colorectal Adenocarcinoma Patients Treated With Bevacizumab</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>AVECC</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1392,40 +1492,45 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT01246427</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2009-009867-70</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Placebo-controlled Evaluation of the Homeopathic Drug BRN01 for the Treatment of Hot Flashes in Women With Non Metastatic Breast Cancer Treated by Adjuvant Hormonal Therapy</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>HBC</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1444,36 +1549,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT01194843</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>A Double-blind Placebo-controlled Evaluation of Ropivacaine Efficacy by Local Per and Post Hepatectomy Infiltrations for Adult Pain Management</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>DPO</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1492,36 +1602,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT01738217</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Evaluation, for Patients Requiring a Liver Cancer Surgery, of the Use of Fluorescence Imaging Device: Faisability and Efficiency of Lesional and/or Anatomical Marking</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>HEPATOFLUO</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1540,36 +1655,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT01323400</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>A Phase II Randomized Multicentre Study Evaluating the Efficacy of Pazopanib+Best Supportive Care (BSC) Versus BSC Alone in Metastatic and/or Locally Advanced Unresectable GIST, Resistant to Imatinib and Sunitinib</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>PAZOGIST</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
       <c r="J24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1588,32 +1708,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT01308034</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Phase I Study of Continuous Dosing of Sunitinib in Non GIST Sarcomas With Concomitant Radiotherapy</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1632,36 +1757,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT01460186</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Evaluation of the Predictive and Prognostic Value of Germ-line Polymorphisms in Patients With Metastatic Breast Cancer : a Multicenter Non-randomized Prospective Cohort Study</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>StoRM</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1680,40 +1810,45 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT00978471</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2009-009899-12</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Efficacy and Tolerance Adjuvant High-Dose Thiotepa With Peripheral Stem Cell Rescue Associated With Conventional Chemotherapy in Children and Adults With Relapsed Osteosarcoma</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>OSII-TTP</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1732,36 +1867,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT03418597</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Randomized, Monocentric, Controlled, Superiority Phase II Trial Evaluating Clinical Hypnosis Using Virtural Reality vs Standard Pain Management Procedure During a Musculoskelettal Biopsy</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>REVENRI</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1780,36 +1920,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT03148886</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Advanced Breast Cancer and Lifestyle Exercise Study</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>ABLE</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1828,41 +1973,46 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT01813136</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2012-003162-41</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>A Randomized, Multicenter, Open-label, Phase II Study of the Optimal Scheme of Administration of Pazopanib in Thyroid Carcinoma</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>PAZOTHYR 
  PAZOTHYR</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1881,36 +2031,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02489695</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Multicenter Phase II Study of Axitinib in First Line Treatment for Patients With Locally Advanced or Metastatic Papillary Renal Cell Carcinoma (PRCC)</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>AXIPAP</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1929,36 +2084,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT03330730</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>A Randomized, Controlled, Multicenter, Prospective, Open Study Evaluating the Efficiency of the IsereADOM Home-care Service Package in the Prevention of Unplanned Hospitalizations of Patients With Cancer</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>IsereADOM</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1977,36 +2137,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT03336905</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Implementation of a Program Based on Adapted Physical Activity and Recommendations for Second Cancers Prevention for Teenagers and Young Adults With Cancer</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>PREVAPAJA</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2025,40 +2190,45 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT03139851</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2016-002736-33</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>CHEMOIMMUNE - A Phase II Study Evaluating an Anti-PD1 Monoclonal Antibody (Pembrolizumab) in Lymphopenic Metastatic Breast Cancer Patients Treated With Metronomic Cyclophosphamide</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>CHEMOIMMUNE</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2077,36 +2247,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT02777710</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>A Dose Escalation Phase I Study With an Extension Part Evaluating the Safety and Activity of an Anti-PDL1 Antibody (DURVALUMAB) Combined With a Small Molecule CSF-1R Tyrosine Kinase Inhibitor (PEXIDARTINIB) in Patients With Metastatic/Advanced Pancreatic or Colorectal Cancers</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>MEDIPLEX</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2125,40 +2300,45 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT01737450</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2012-002403-18</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>A Phase II, Multicenter Trial Aiming to Evaluate the Clinical Interest of a Monotherapy With BKM120 , a Phosphoinositide 3-kinase (PI3K) Inhibitor in Patient With Metastatic Head and Neck Cancer Recurrent or Progressive Under Platin and Cetuximab-based Chemotherapy</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>PIK-ORL</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2177,36 +2357,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT01635270</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Randomized Phase 2 Study Evaluating the Interest of Mid-position Strategy Versus ITV (Internal Target Volume) Strategy in Radiotherapy Treatment for Patients With a Locally Advanced Non-resected Non-small Cell Lung Carcinoma (NSCLC).</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>midP</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -2225,36 +2410,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT02576106</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Evaluation of Percutaneous Treatment by Cryoablation of Unifocal Invasive Breast Carcinoma in Menopausal Women With Indication of Lumpectomy</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>CRYOSE01</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2273,36 +2463,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT03421912</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Comparative Monocentric Randomized Study Evaluating the Satisfaction and Quality of Life of Patients Using Cicaplast Baume B5 Versus Dexeryl for the Management of Cutaneous Toxicities Induced by Epidermal Growth Factor Receptor Inhibitors (iEGRF) in Carcinomas Squamous Cells of the Head and Neck, Colorectal Cancers or Lung Cancers</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>CICAFIX</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2319,40 +2514,45 @@
           <t>orange</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2019-001711-23</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>CICA-RT – Phase III randomized multicenter study evaluating Cicaderma® ointment efficacy versus the current practice of each center for the radiation dermatitis prevention in patients with non-metastatic breast cancer after adjuvant post-operative breast irradiation  
  CICA-RT – Etude multicentrique randomisée de phase III évaluant l’efficacité de la pommade Cicaderma® versus la pratique courante de chaque centre sur la prévention des radiodermites après prise en charge adjuvante par irradiation mammaire post-opératoire chez des patientes atteintes d’un cancer du sein non métastatique</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>CICA-RT 
  CICA-RT</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
       </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2367,36 +2567,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT04510454</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Evaluation of a ddPCR Technology for the SARS-CoV-2 Detection in Symptomatic Patients With Suspicion of COVID-19</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>ONCOVID-21</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2415,36 +2620,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT02013297</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Hypofractionated Stereotactic Radiation Treatments (SBRT) on Children, Teenagers and Young Adults Malignant Tumors</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>SBRT</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -2463,40 +2673,45 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT01427478</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2010-023265-22</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>A Randomized, Double-blind, Placebo-controlled Phase III Study, to Evaluate the Efficacy of Afatinib (BIBW2992) in Maintenance Therapy After Post- Operative Radio-chemotherapy in Squamous-cell Carcinoma of the Head and Neck: GORTEC 2010-02</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>BIBW2992ORL</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2515,36 +2730,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT04333914</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>A Prospective, Controlled, Randomized, Multicenter Study of the Efficacy of an Autophagy Inhibitor (GNS561), an Anti-NKG2A (Monalizumab) and an Anti-C5aR (Avdoralimab) Compared to the Standard of Care in Patients With Advanced or Metastatic Cancer and SARS-CoV-2 (COVID-19) Infection.</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>IMMUNONCOVID</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2563,36 +2783,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT03163732</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>A Multicentric, Prospective Cohort Study Aiming to Evaluate the Added Value of a Large Molecular Profiling Panel (Panel FoundationOne) Versus a Limited Molecular Profiling Panel (Panel CONTROL) in Advanced Solid Tumors.</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>PROFILER 02</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -2611,32 +2836,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT02104986</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>A Multicenter Study to Evaluate a Risk-adapted Strategy for Treatment of Extra Cranial Non Seminomateous Malignant Germ Cell Tumour in Children and Adolescent</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2655,36 +2885,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT02977156</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>A Phase I Dose Escalation Trial Evaluating the Impact of an in Situ Immunization Strategy With Intra-Tumoral Injections of Pexa-Vec in Combination With Ipilimumab in Metastatic / Advanced Solid Tumors With Injectable Lesions.</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>ISI-JX</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2703,36 +2938,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT03529383</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Randomized Controlled Trial Evaluating the Efficacy of an Adapted Physical Activity Program Using a Connected Device With Activity Trackers and a Therapeutic Education Program Among Women With Localized Breast Cancer</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>DISCO</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
       <c r="J48" t="b">
         <v>1</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2751,36 +2991,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT03871959</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>CATRIPCA - A Phase I Study of PD1 Monoclonal Antibody (Pembrolizumab) In Combination With a IAP Antagonist (Debio 1143) In (Exocrine) Pancreatic And Colorectal Non MSI-high Advanced/Metastatic Adenocarcinoma.</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>CATRIPCA</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
       <c r="J49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2799,36 +3044,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT02977195</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>NP137 - An Open-label, First in Human, Phase I Trial Aiming to Evaluate the Safety, Pharmacokinetics, and Clinical Activity of a Humanized Monoclonal Antibody Targeting Netrin 1 (NP137) in Patients With Advanced/Metastatic Solid Tumors.</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>NP137</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
       <c r="J50" t="b">
         <v>1</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2847,36 +3097,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT03356223</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>A Phase II Trial Aiming to Evaluate the Clinical Interest of ABEMACICLIB Monotherapy in Patients With Locally Advanced/Metastatic Head and Neck Cancer After Failure of Platinum and Cetuximab or Anti-EGFR-based Therapy and Harboring an Homozygous Deletion of CDKN2A, and/or an Amplification of CCND1 and/or of CDK6</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>ABORL</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2895,36 +3150,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT03721120</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>A Randomized Phase III Clinical Trial to Evaluate the Feasibility and Clinical Relevance of Liquid Biopsy in Patients With Suspicious Metastatic Lung Cancer</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>LIBELULE</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2943,36 +3203,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT03714958</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>A Single-center, Phase 1 Dose Escalation Study of Trametinib Combined With HDM201 in Patients With RAS/RAF Mutant and TP53 Wild-type Advanced/Metastatic Colorectal Cancer.</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>TRAHD</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2991,36 +3256,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT02260505</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>A Randomized Multicenter Phase III Trial Evaluating the Interest of Imatinib Treatment Maintenance or Interruption After 3 Years of Adjuvant Treatment in Patients With Gastrointestinal Stromal Tumours (GIST)</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>ImadGist</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3039,32 +3309,37 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT05568667</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Pilot Study to Improve Primary Prevention of Colorectal Cancer by Motivational and Community-based Approaches, According to Individual Risk Level, in People Undergoing Colonoscopy</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3083,32 +3358,37 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT05273931</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Evaluation of a Lifestyle Intervention Among Participants of the French Colorectal Cancer Screening Program (LIFE-SCREEN Pilot)</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3127,36 +3407,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT04052126</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>An Interventional Prospective Study to Test the Feasibility of an Individualized Physical Activity Program in Patients Over 65 Years of Age With Hematologic Malignancies: the OCAPI Project.</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>OCAPI</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
       <c r="J57" t="b">
         <v>1</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3175,36 +3460,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT05881148</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Carbon " Super Spikes " Performances on Sprint Acceleration : Just Use it? A Multiple N-of-1 Trial. A Multiple N-of-1 Trial in Healthy Athletes</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>CS3T</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3223,40 +3513,45 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT03967522</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
         <is>
           <t>2024-512630-15-00</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>CABRAMET: A Phase 2 Study of Cabozantinib in Metastatic Renal Cell Carcinoma (mRCC) With Brain Metastases</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>CABRAMET</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3275,40 +3570,45 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT04193553</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
         <is>
           <t>2024-513984-22-00</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>A Multicentre, Comparative, Placebo-controlled, Double-blinded, Phase II Study of the Efficacy of Lenvatinib in Patients With Locally Advanced or Metastatic GIST After Failure of Imatinib and Sunitinib</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>LENVAGIST</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3327,36 +3627,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT05298930</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>A Feasibility Study Evaluating Connected Bikes as a Means of Adapted Physical Activity in Children, Adolescents and Young Adults Requiring Hematopoietic Stem Cell Transplantation</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>EVAADE</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3375,36 +3680,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT04676009</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Feasibility of an Acute Physical Exercise Before Immunotherapy and Chemotherapy Infusion for Metastatic Non-small-cell Lung Cancer Patients: Protocol ERICA Study</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>ERICA</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
       <c r="J62" t="b">
         <v>1</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3423,36 +3733,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT05944900</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Randomized, Prospective, Single-center Trial Comparing the Efficacy of Peripherally Inserted Central Catheter (PICC) Placement With the Addition of Cyanoacrylate Glue Versus PICC Placement Alone (Without Glue) in Patients With Cancer.</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>PICCandGLUE</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3469,40 +3784,45 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2018-000414-38</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Frail-Immune (GORTEC-2018-03) - A multicenter, prospective, single arm phase II study evaluating the efficacy and safety of the combination of Durvalumab with carboplatin and paclitaxel as first line treatment in patients with recurrent/metastatic squamous cell carcinoma of the head and neck not eligible to standard chemotherapy 
  Frail-Immune (GORTEC-2018-03) - Etude de phase II, monobras, prospective, multicentrique évaluant l’efficacité et la tolérance de l’association du Durvalumab avec la Carboplatine et le Paclitaxel, en traitement de première ligne chez des patients porteurs d’un carcinome   épidermoïde de la tête et du cou récurrent / métastatique non éligibles à la chimiothérapie standard</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>Frail-Immune 
  Frail-Immune</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3517,36 +3837,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT03723967</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Multicenter Prospective Single Arm Phase II Study Evaluating Efficacy &amp; Safety of Durvalumab With Carboplatin/Paclitaxel as First Line Treatment in Patients With Recurrent/Metastatic SCCHN Not Eligible to Standard Chemotherapy</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>FRAIL-IMMUNE</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3565,32 +3890,37 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT01262417</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr">
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
         <is>
           <t>Evaluationof the Efficiency of a Resorbable Barrier Membrane for the Prevention of Abdominal and Peri-hepatic Adhesion in Patients With Colorectal Cancer Requiring Two-stage Surgery for the Resection of Hepatic Metastases</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>SEPRAC2T</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
       <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3609,28 +3939,33 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT00820963</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
         <is>
           <t>Randomized Study of Normal-fractionated Radiotherapy Versus Hypofractionated Radiotherapy Versus Chemotherapy in Patients Over 60 Years With Malignant Glioma</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -3649,28 +3984,33 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT00775112</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
         <is>
           <t>Randomized Evaluation of a Positioning Pillow for Lumbar Puncture in Paediatric Hematology-Oncology</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3687,36 +4027,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2016-004537-25</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
         <is>
           <t>An Phase II trial aiming to evaluate the clinical interest of ABEMACICLIB monotherapy in patients with locally advanced/metastatic head and neck cancer after failure of platinum and cetuximab or anti-EGFR-based therapy and harboring an homozygous deletion of CDKN2A, and/or an amplification of CCND1 and/or of CDK6 
  AB-ORL - Etude de Phase II visant à évaluer l’intérêt clinique d’une monothérapie par abemaciclib chez des patients atteints d’un cancer de la tête et du cou localement avancé ou métastatique après échec d’une thérapie à base de platine et de cetuximab ou anti-EGFR, et présentant une délétion homozygote du gène CDKN2A, et/ou une amplification du gène CCND1 et/ou du gène CDK6.</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>ABORL 
  ABORL</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3729,35 +4074,40 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2017-003151-34</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
         <is>
           <t>A multicenter, randomised, open-label Phase II study to evaluate the clinical benefit of a post-operative treatment associating radiotherapy + Nivolumab + Ipilimumab versus radiotherapy + Capecitabine for triple negative breast cancer patients with residual disease after neoadjuvant chemotherapy. 
  Etude multicentrique de Phase II, randomisée, menée en ouvert visant à évaluer le bénéfice clinique d’un traitement post-opératoire associant radiothérapie + Nivolumab + Ipilimumab versus radiothérapie + Capécitabine chez des patientes atteintes d’un cancer du sein triple négatif et présentant une maladie résiduelle après chimiothérapie néoadjuvante.</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>BreastImmune03</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
+++ b/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
+++ b/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📙</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>+3</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
+++ b/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
@@ -67,7 +67,7 @@
     <t>+3</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>orange</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
   </si>
   <si>
     <t>NCT00291369</t>

--- a/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
+++ b/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
@@ -49,24 +49,24 @@
     <t>3</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>4: pas de résultats postés ni publiés</t>
   </si>
   <si>
     <t>3: résultats postés ou publiés après les 36 mois</t>
   </si>
   <si>
+    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
     <t>1: résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
     <t>NCT00291369</t>
   </si>
   <si>
@@ -88,6 +88,9 @@
     <t>NCT00619268</t>
   </si>
   <si>
+    <t>NCT00367861</t>
+  </si>
+  <si>
     <t>NCT01136499</t>
   </si>
   <si>
@@ -97,39 +100,36 @@
     <t>NCT01261429</t>
   </si>
   <si>
-    <t>NCT00367861</t>
+    <t>NCT01368107</t>
   </si>
   <si>
     <t>NCT00905281</t>
   </si>
   <si>
+    <t>NCT01314300</t>
+  </si>
+  <si>
+    <t>NCT00349102</t>
+  </si>
+  <si>
     <t>NCT01331772</t>
   </si>
   <si>
-    <t>NCT01368107</t>
+    <t>NCT01246427</t>
   </si>
   <si>
     <t>NCT01696630</t>
   </si>
   <si>
-    <t>NCT00349102</t>
-  </si>
-  <si>
-    <t>NCT01314300</t>
-  </si>
-  <si>
     <t>NCT01405430</t>
   </si>
   <si>
-    <t>NCT01246427</t>
+    <t>NCT01738217</t>
   </si>
   <si>
     <t>NCT01194843</t>
   </si>
   <si>
-    <t>NCT01738217</t>
-  </si>
-  <si>
     <t>NCT01323400</t>
   </si>
   <si>
@@ -139,61 +139,64 @@
     <t>NCT01460186</t>
   </si>
   <si>
+    <t>NCT03148886</t>
+  </si>
+  <si>
     <t>NCT00978471</t>
   </si>
   <si>
     <t>NCT03418597</t>
   </si>
   <si>
-    <t>NCT03148886</t>
+    <t>NCT01737450</t>
+  </si>
+  <si>
+    <t>NCT02489695</t>
+  </si>
+  <si>
+    <t>NCT03336905</t>
+  </si>
+  <si>
+    <t>NCT03139851</t>
+  </si>
+  <si>
+    <t>NCT03330730</t>
   </si>
   <si>
     <t>NCT01813136</t>
   </si>
   <si>
-    <t>NCT02489695</t>
-  </si>
-  <si>
-    <t>NCT03330730</t>
-  </si>
-  <si>
-    <t>NCT03336905</t>
-  </si>
-  <si>
-    <t>NCT03139851</t>
-  </si>
-  <si>
     <t>NCT02777710</t>
   </si>
   <si>
-    <t>NCT01737450</t>
-  </si>
-  <si>
     <t>NCT01635270</t>
   </si>
   <si>
     <t>NCT02576106</t>
   </si>
   <si>
+    <t>NCT02013297</t>
+  </si>
+  <si>
     <t>NCT03421912</t>
   </si>
   <si>
+    <t>NCT02104986</t>
+  </si>
+  <si>
+    <t>NCT01427478</t>
+  </si>
+  <si>
     <t>NCT04510454</t>
   </si>
   <si>
-    <t>NCT02013297</t>
-  </si>
-  <si>
-    <t>NCT01427478</t>
-  </si>
-  <si>
     <t>NCT04333914</t>
   </si>
   <si>
     <t>NCT03163732</t>
   </si>
   <si>
-    <t>NCT02104986</t>
+    <t>NCT03871959</t>
   </si>
   <si>
     <t>NCT02977156</t>
@@ -202,60 +205,57 @@
     <t>NCT03529383</t>
   </si>
   <si>
-    <t>NCT03871959</t>
+    <t>NCT03356223</t>
   </si>
   <si>
     <t>NCT02977195</t>
   </si>
   <si>
-    <t>NCT03356223</t>
+    <t>NCT05881148</t>
   </si>
   <si>
     <t>NCT03721120</t>
   </si>
   <si>
+    <t>NCT02260505</t>
+  </si>
+  <si>
+    <t>NCT04052126</t>
+  </si>
+  <si>
+    <t>NCT05273931</t>
+  </si>
+  <si>
+    <t>NCT05568667</t>
+  </si>
+  <si>
     <t>NCT03714958</t>
   </si>
   <si>
-    <t>NCT02260505</t>
-  </si>
-  <si>
-    <t>NCT05568667</t>
-  </si>
-  <si>
-    <t>NCT05273931</t>
-  </si>
-  <si>
-    <t>NCT04052126</t>
-  </si>
-  <si>
-    <t>NCT05881148</t>
+    <t>NCT04193553</t>
+  </si>
+  <si>
+    <t>NCT04676009</t>
+  </si>
+  <si>
+    <t>NCT03723967</t>
+  </si>
+  <si>
+    <t>NCT05944900</t>
   </si>
   <si>
     <t>NCT03967522</t>
   </si>
   <si>
-    <t>NCT04193553</t>
-  </si>
-  <si>
     <t>NCT05298930</t>
   </si>
   <si>
-    <t>NCT04676009</t>
-  </si>
-  <si>
-    <t>NCT05944900</t>
-  </si>
-  <si>
-    <t>NCT03723967</t>
+    <t>NCT00820963</t>
   </si>
   <si>
     <t>NCT01262417</t>
   </si>
   <si>
-    <t>NCT00820963</t>
-  </si>
-  <si>
     <t>NCT00775112</t>
   </si>
   <si>
@@ -274,36 +274,36 @@
     <t>2009-009899-12</t>
   </si>
   <si>
+    <t>2012-002403-18</t>
+  </si>
+  <si>
+    <t>2016-002736-33</t>
+  </si>
+  <si>
     <t>2012-003162-41</t>
   </si>
   <si>
-    <t>2016-002736-33</t>
-  </si>
-  <si>
-    <t>2012-002403-18</t>
+    <t>2010-023265-22</t>
   </si>
   <si>
     <t>2019-001711-23</t>
   </si>
   <si>
-    <t>2010-023265-22</t>
-  </si>
-  <si>
     <t>2018-000414-38</t>
   </si>
   <si>
+    <t>2017-003151-34</t>
+  </si>
+  <si>
     <t>2016-004537-25</t>
   </si>
   <si>
-    <t>2017-003151-34</t>
+    <t>2024-513984-22-00</t>
   </si>
   <si>
     <t>2024-512630-15-00</t>
   </si>
   <si>
-    <t>2024-513984-22-00</t>
-  </si>
-  <si>
     <t>2005</t>
   </si>
   <si>
@@ -376,10 +376,13 @@
     <t>Evaluation of the Technique of Axillary Sentinel Lymph Node (SLN) Detection in Breast Cancers &gt; 2 cm</t>
   </si>
   <si>
+    <t>Open Label, Randomized, Multicenter Phase II Study of a Combination of Torisel® (Temsirolimus) and Avastin® (Bevacizumab) Versus Sutent® (Sunitinib) and Versus a Combination of Avastin® (Bevacizumab) and Roféron® (Interferon Alpha-2a) in First-line Treatment of Patients With Metastatic Renal Cell Carcinoma.</t>
+  </si>
+  <si>
     <t>Efficacy and safety assessment of oral LBH589 in adult patients with advanced soft tissue sarcoma after doxorubicin failure: an open-label, multi-centric phase II study</t>
   </si>
   <si>
-    <t>Open Label, Randomized, Multicenter Phase II Study of a Combination of Torisel® (Temsirolimus) and Avastin® (Bevacizumab) Versus Sutent® (Sunitinib) and Versus a Combination of Avastin® (Bevacizumab) and Roféron® (Interferon Alpha-2a) in First-line Treatment of Patients With Metastatic Renal Cell Carcinoma.</t>
+    <t>A Prospective Multicentric Randomized Study of Glivec® in Patients With Advanced Gastrointestinal Stromal Tumors Expressing C-kit Comparing Treatment Interruption After 5 Years vs Treatment Maintenance</t>
   </si>
   <si>
     <t>Efficacy and Safety Assessment of Oral LBH589 in Adult Patients With Advanced Soft Tissue Sarcoma After Pre-treatment Failure: an Open-label, Multicenter Phase II Study</t>
@@ -391,39 +394,36 @@
     <t>Phase II Study of Nilotinib Efficacy in Pigmented Villo-Nodular Synovitis/ Tenosynovial Giant Cell Tumour (PVNS/TGCT)</t>
   </si>
   <si>
-    <t>A Prospective Multicentric Randomized Study of Glivec® in Patients With Advanced Gastrointestinal Stromal Tumors Expressing C-kit Comparing Treatment Interruption After 5 Years vs Treatment Maintenance</t>
+    <t>A Randomised, Multicentric, Phase 2a Study Evaluating the Impact of an Immunotherapy by IL-7 on CD4 Lymphopenia, Risks of Severe Haematological Toxicity and Tumor Progression in Metastatic Breast Cancer Patients</t>
   </si>
   <si>
     <t>Randomized Controlled Trial Assessing the Impact of Routine "Oncologist-supportive Care Team" Consultation on the Use of an Additional Line of Chemotherapy in Metastatic Breast Cancer Patients</t>
   </si>
   <si>
+    <t>VERSATIS - Efficacy and Safety of Lidocaine 5% Plasters (Versatis® 5%) in Child, Adolescents and Young Adults With Neuropathic Pains or Vasoocclusive Sickle Cell Crisis Pains</t>
+  </si>
+  <si>
+    <t>Evaluation of the Interest of Breath Holding for the Prevention of Radiation Pneumonitis Following Conformal Radiation Therapy</t>
+  </si>
+  <si>
     <t>Randomized Controlled Study Assessing the Feasibility and the Medico-economic Impact of Nutritional Intervention in Women With Breast Cancer Under Adjuvant Chemotherapy</t>
   </si>
   <si>
-    <t>A Randomised, Multicentric, Phase 2a Study Evaluating the Impact of an Immunotherapy by IL-7 on CD4 Lymphopenia, Risks of Severe Haematological Toxicity and Tumor Progression in Metastatic Breast Cancer Patients</t>
+    <t>Placebo-controlled Evaluation of the Homeopathic Drug BRN01 for the Treatment of Hot Flashes in Women With Non Metastatic Breast Cancer Treated by Adjuvant Hormonal Therapy</t>
   </si>
   <si>
     <t>Phase II Study, Randomized, Monocentric, Single-blind, Comparing the Efficacy of Xenon and Desflurane, in Association With a Thoracic Epidural Analgesia in the Maintenance Phase of a Colorectal Oncologic Surgery</t>
   </si>
   <si>
-    <t>Evaluation of the Interest of Breath Holding for the Prevention of Radiation Pneumonitis Following Conformal Radiation Therapy</t>
-  </si>
-  <si>
-    <t>VERSATIS - Efficacy and Safety of Lidocaine 5% Plasters (Versatis® 5%) in Child, Adolescents and Young Adults With Neuropathic Pains or Vasoocclusive Sickle Cell Crisis Pains</t>
-  </si>
-  <si>
     <t>Exploration of New Biologic Factors' Predictive Value , Especially Circulating VE-cadherin in Metastatic Colorectal Adenocarcinoma Patients Treated With Bevacizumab</t>
   </si>
   <si>
-    <t>Placebo-controlled Evaluation of the Homeopathic Drug BRN01 for the Treatment of Hot Flashes in Women With Non Metastatic Breast Cancer Treated by Adjuvant Hormonal Therapy</t>
+    <t>Evaluation, for Patients Requiring a Liver Cancer Surgery, of the Use of Fluorescence Imaging Device: Faisability and Efficiency of Lesional and/or Anatomical Marking</t>
   </si>
   <si>
     <t>A Double-blind Placebo-controlled Evaluation of Ropivacaine Efficacy by Local Per and Post Hepatectomy Infiltrations for Adult Pain Management</t>
   </si>
   <si>
-    <t>Evaluation, for Patients Requiring a Liver Cancer Surgery, of the Use of Fluorescence Imaging Device: Faisability and Efficiency of Lesional and/or Anatomical Marking</t>
-  </si>
-  <si>
     <t>A Phase II Randomized Multicentre Study Evaluating the Efficacy of Pazopanib+Best Supportive Care (BSC) Versus BSC Alone in Metastatic and/or Locally Advanced Unresectable GIST, Resistant to Imatinib and Sunitinib</t>
   </si>
   <si>
@@ -433,65 +433,68 @@
     <t>Evaluation of the Predictive and Prognostic Value of Germ-line Polymorphisms in Patients With Metastatic Breast Cancer : a Multicenter Non-randomized Prospective Cohort Study</t>
   </si>
   <si>
+    <t>Advanced Breast Cancer and Lifestyle Exercise Study</t>
+  </si>
+  <si>
     <t>Efficacy and Tolerance Adjuvant High-Dose Thiotepa With Peripheral Stem Cell Rescue Associated With Conventional Chemotherapy in Children and Adults With Relapsed Osteosarcoma</t>
   </si>
   <si>
     <t>Randomized, Monocentric, Controlled, Superiority Phase II Trial Evaluating Clinical Hypnosis Using Virtural Reality vs Standard Pain Management Procedure During a Musculoskelettal Biopsy</t>
   </si>
   <si>
-    <t>Advanced Breast Cancer and Lifestyle Exercise Study</t>
+    <t>A Phase II, Multicenter Trial Aiming to Evaluate the Clinical Interest of a Monotherapy With BKM120 , a Phosphoinositide 3-kinase (PI3K) Inhibitor in Patient With Metastatic Head and Neck Cancer Recurrent or Progressive Under Platin and Cetuximab-based Chemotherapy</t>
+  </si>
+  <si>
+    <t>Multicenter Phase II Study of Axitinib in First Line Treatment for Patients With Locally Advanced or Metastatic Papillary Renal Cell Carcinoma (PRCC)</t>
+  </si>
+  <si>
+    <t>Implementation of a Program Based on Adapted Physical Activity and Recommendations for Second Cancers Prevention for Teenagers and Young Adults With Cancer</t>
+  </si>
+  <si>
+    <t>CHEMOIMMUNE - A Phase II Study Evaluating an Anti-PD1 Monoclonal Antibody (Pembrolizumab) in Lymphopenic Metastatic Breast Cancer Patients Treated With Metronomic Cyclophosphamide</t>
+  </si>
+  <si>
+    <t>A Randomized, Controlled, Multicenter, Prospective, Open Study Evaluating the Efficiency of the IsereADOM Home-care Service Package in the Prevention of Unplanned Hospitalizations of Patients With Cancer</t>
   </si>
   <si>
     <t>A Randomized, Multicenter, Open-label, Phase II Study of the Optimal Scheme of Administration of Pazopanib in Thyroid Carcinoma</t>
   </si>
   <si>
-    <t>Multicenter Phase II Study of Axitinib in First Line Treatment for Patients With Locally Advanced or Metastatic Papillary Renal Cell Carcinoma (PRCC)</t>
-  </si>
-  <si>
-    <t>A Randomized, Controlled, Multicenter, Prospective, Open Study Evaluating the Efficiency of the IsereADOM Home-care Service Package in the Prevention of Unplanned Hospitalizations of Patients With Cancer</t>
-  </si>
-  <si>
-    <t>Implementation of a Program Based on Adapted Physical Activity and Recommendations for Second Cancers Prevention for Teenagers and Young Adults With Cancer</t>
-  </si>
-  <si>
-    <t>CHEMOIMMUNE - A Phase II Study Evaluating an Anti-PD1 Monoclonal Antibody (Pembrolizumab) in Lymphopenic Metastatic Breast Cancer Patients Treated With Metronomic Cyclophosphamide</t>
-  </si>
-  <si>
     <t>A Dose Escalation Phase I Study With an Extension Part Evaluating the Safety and Activity of an Anti-PDL1 Antibody (DURVALUMAB) Combined With a Small Molecule CSF-1R Tyrosine Kinase Inhibitor (PEXIDARTINIB) in Patients With Metastatic/Advanced Pancreatic or Colorectal Cancers</t>
   </si>
   <si>
-    <t>A Phase II, Multicenter Trial Aiming to Evaluate the Clinical Interest of a Monotherapy With BKM120 , a Phosphoinositide 3-kinase (PI3K) Inhibitor in Patient With Metastatic Head and Neck Cancer Recurrent or Progressive Under Platin and Cetuximab-based Chemotherapy</t>
-  </si>
-  <si>
     <t>Randomized Phase 2 Study Evaluating the Interest of Mid-position Strategy Versus ITV (Internal Target Volume) Strategy in Radiotherapy Treatment for Patients With a Locally Advanced Non-resected Non-small Cell Lung Carcinoma (NSCLC).</t>
   </si>
   <si>
     <t>Evaluation of Percutaneous Treatment by Cryoablation of Unifocal Invasive Breast Carcinoma in Menopausal Women With Indication of Lumpectomy</t>
   </si>
   <si>
+    <t>Hypofractionated Stereotactic Radiation Treatments (SBRT) on Children, Teenagers and Young Adults Malignant Tumors</t>
+  </si>
+  <si>
     <t>Comparative Monocentric Randomized Study Evaluating the Satisfaction and Quality of Life of Patients Using Cicaplast Baume B5 Versus Dexeryl for the Management of Cutaneous Toxicities Induced by Epidermal Growth Factor Receptor Inhibitors (iEGRF) in Carcinomas Squamous Cells of the Head and Neck, Colorectal Cancers or Lung Cancers</t>
+  </si>
+  <si>
+    <t>A Multicenter Study to Evaluate a Risk-adapted Strategy for Treatment of Extra Cranial Non Seminomateous Malignant Germ Cell Tumour in Children and Adolescent</t>
+  </si>
+  <si>
+    <t>A Randomized, Double-blind, Placebo-controlled Phase III Study, to Evaluate the Efficacy of Afatinib (BIBW2992) in Maintenance Therapy After Post- Operative Radio-chemotherapy in Squamous-cell Carcinoma of the Head and Neck: GORTEC 2010-02</t>
+  </si>
+  <si>
+    <t>Evaluation of a ddPCR Technology for the SARS-CoV-2 Detection in Symptomatic Patients With Suspicion of COVID-19</t>
   </si>
   <si>
     <t>CICA-RT – Phase III randomized multicenter study evaluating Cicaderma® ointment efficacy versus the current practice of each center for the radiation dermatitis prevention in patients with non-metastatic breast cancer after adjuvant post-operative breast irradiation  
  CICA-RT – Etude multicentrique randomisée de phase III évaluant l’efficacité de la pommade Cicaderma® versus la pratique courante de chaque centre sur la prévention des radiodermites après prise en charge adjuvante par irradiation mammaire post-opératoire chez des patientes atteintes d’un cancer du sein non métastatique</t>
   </si>
   <si>
-    <t>Evaluation of a ddPCR Technology for the SARS-CoV-2 Detection in Symptomatic Patients With Suspicion of COVID-19</t>
-  </si>
-  <si>
-    <t>Hypofractionated Stereotactic Radiation Treatments (SBRT) on Children, Teenagers and Young Adults Malignant Tumors</t>
-  </si>
-  <si>
-    <t>A Randomized, Double-blind, Placebo-controlled Phase III Study, to Evaluate the Efficacy of Afatinib (BIBW2992) in Maintenance Therapy After Post- Operative Radio-chemotherapy in Squamous-cell Carcinoma of the Head and Neck: GORTEC 2010-02</t>
-  </si>
-  <si>
     <t>A Prospective, Controlled, Randomized, Multicenter Study of the Efficacy of an Autophagy Inhibitor (GNS561), an Anti-NKG2A (Monalizumab) and an Anti-C5aR (Avdoralimab) Compared to the Standard of Care in Patients With Advanced or Metastatic Cancer and SARS-CoV-2 (COVID-19) Infection.</t>
   </si>
   <si>
     <t>A Multicentric, Prospective Cohort Study Aiming to Evaluate the Added Value of a Large Molecular Profiling Panel (Panel FoundationOne) Versus a Limited Molecular Profiling Panel (Panel CONTROL) in Advanced Solid Tumors.</t>
   </si>
   <si>
-    <t>A Multicenter Study to Evaluate a Risk-adapted Strategy for Treatment of Extra Cranial Non Seminomateous Malignant Germ Cell Tumour in Children and Adolescent</t>
+    <t>CATRIPCA - A Phase I Study of PD1 Monoclonal Antibody (Pembrolizumab) In Combination With a IAP Antagonist (Debio 1143) In (Exocrine) Pancreatic And Colorectal Non MSI-high Advanced/Metastatic Adenocarcinoma.</t>
   </si>
   <si>
     <t>A Phase I Dose Escalation Trial Evaluating the Impact of an in Situ Immunization Strategy With Intra-Tumoral Injections of Pexa-Vec in Combination With Ipilimumab in Metastatic / Advanced Solid Tumors With Injectable Lesions.</t>
@@ -500,49 +503,37 @@
     <t>Randomized Controlled Trial Evaluating the Efficacy of an Adapted Physical Activity Program Using a Connected Device With Activity Trackers and a Therapeutic Education Program Among Women With Localized Breast Cancer</t>
   </si>
   <si>
-    <t>CATRIPCA - A Phase I Study of PD1 Monoclonal Antibody (Pembrolizumab) In Combination With a IAP Antagonist (Debio 1143) In (Exocrine) Pancreatic And Colorectal Non MSI-high Advanced/Metastatic Adenocarcinoma.</t>
+    <t>A Phase II Trial Aiming to Evaluate the Clinical Interest of ABEMACICLIB Monotherapy in Patients With Locally Advanced/Metastatic Head and Neck Cancer After Failure of Platinum and Cetuximab or Anti-EGFR-based Therapy and Harboring an Homozygous Deletion of CDKN2A, and/or an Amplification of CCND1 and/or of CDK6</t>
   </si>
   <si>
     <t>NP137 - An Open-label, First in Human, Phase I Trial Aiming to Evaluate the Safety, Pharmacokinetics, and Clinical Activity of a Humanized Monoclonal Antibody Targeting Netrin 1 (NP137) in Patients With Advanced/Metastatic Solid Tumors.</t>
   </si>
   <si>
-    <t>A Phase II Trial Aiming to Evaluate the Clinical Interest of ABEMACICLIB Monotherapy in Patients With Locally Advanced/Metastatic Head and Neck Cancer After Failure of Platinum and Cetuximab or Anti-EGFR-based Therapy and Harboring an Homozygous Deletion of CDKN2A, and/or an Amplification of CCND1 and/or of CDK6</t>
+    <t>Carbon " Super Spikes " Performances on Sprint Acceleration : Just Use it? A Multiple N-of-1 Trial. A Multiple N-of-1 Trial in Healthy Athletes</t>
   </si>
   <si>
     <t>A Randomized Phase III Clinical Trial to Evaluate the Feasibility and Clinical Relevance of Liquid Biopsy in Patients With Suspicious Metastatic Lung Cancer</t>
   </si>
   <si>
+    <t>A Randomized Multicenter Phase III Trial Evaluating the Interest of Imatinib Treatment Maintenance or Interruption After 3 Years of Adjuvant Treatment in Patients With Gastrointestinal Stromal Tumours (GIST)</t>
+  </si>
+  <si>
+    <t>An Interventional Prospective Study to Test the Feasibility of an Individualized Physical Activity Program in Patients Over 65 Years of Age With Hematologic Malignancies: the OCAPI Project.</t>
+  </si>
+  <si>
+    <t>Evaluation of a Lifestyle Intervention Among Participants of the French Colorectal Cancer Screening Program (LIFE-SCREEN Pilot)</t>
+  </si>
+  <si>
+    <t>Pilot Study to Improve Primary Prevention of Colorectal Cancer by Motivational and Community-based Approaches, According to Individual Risk Level, in People Undergoing Colonoscopy</t>
+  </si>
+  <si>
     <t>A Single-center, Phase 1 Dose Escalation Study of Trametinib Combined With HDM201 in Patients With RAS/RAF Mutant and TP53 Wild-type Advanced/Metastatic Colorectal Cancer.</t>
   </si>
   <si>
-    <t>A Randomized Multicenter Phase III Trial Evaluating the Interest of Imatinib Treatment Maintenance or Interruption After 3 Years of Adjuvant Treatment in Patients With Gastrointestinal Stromal Tumours (GIST)</t>
-  </si>
-  <si>
-    <t>Pilot Study to Improve Primary Prevention of Colorectal Cancer by Motivational and Community-based Approaches, According to Individual Risk Level, in People Undergoing Colonoscopy</t>
-  </si>
-  <si>
-    <t>Evaluation of a Lifestyle Intervention Among Participants of the French Colorectal Cancer Screening Program (LIFE-SCREEN Pilot)</t>
-  </si>
-  <si>
-    <t>An Interventional Prospective Study to Test the Feasibility of an Individualized Physical Activity Program in Patients Over 65 Years of Age With Hematologic Malignancies: the OCAPI Project.</t>
-  </si>
-  <si>
-    <t>Carbon " Super Spikes " Performances on Sprint Acceleration : Just Use it? A Multiple N-of-1 Trial. A Multiple N-of-1 Trial in Healthy Athletes</t>
-  </si>
-  <si>
-    <t>CABRAMET: A Phase 2 Study of Cabozantinib in Metastatic Renal Cell Carcinoma (mRCC) With Brain Metastases</t>
-  </si>
-  <si>
     <t>A Multicentre, Comparative, Placebo-controlled, Double-blinded, Phase II Study of the Efficacy of Lenvatinib in Patients With Locally Advanced or Metastatic GIST After Failure of Imatinib and Sunitinib</t>
   </si>
   <si>
-    <t>A Feasibility Study Evaluating Connected Bikes as a Means of Adapted Physical Activity in Children, Adolescents and Young Adults Requiring Hematopoietic Stem Cell Transplantation</t>
-  </si>
-  <si>
     <t>Feasibility of an Acute Physical Exercise Before Immunotherapy and Chemotherapy Infusion for Metastatic Non-small-cell Lung Cancer Patients: Protocol ERICA Study</t>
-  </si>
-  <si>
-    <t>Randomized, Prospective, Single-center Trial Comparing the Efficacy of Peripherally Inserted Central Catheter (PICC) Placement With the Addition of Cyanoacrylate Glue Versus PICC Placement Alone (Without Glue) in Patients With Cancer.</t>
   </si>
   <si>
     <t>Frail-Immune (GORTEC-2018-03) - A multicenter, prospective, single arm phase II study evaluating the efficacy and safety of the combination of Durvalumab with carboplatin and paclitaxel as first line treatment in patients with recurrent/metastatic squamous cell carcinoma of the head and neck not eligible to standard chemotherapy 
@@ -552,21 +543,30 @@
     <t>Multicenter Prospective Single Arm Phase II Study Evaluating Efficacy &amp; Safety of Durvalumab With Carboplatin/Paclitaxel as First Line Treatment in Patients With Recurrent/Metastatic SCCHN Not Eligible to Standard Chemotherapy</t>
   </si>
   <si>
-    <t>Evaluationof the Efficiency of a Resorbable Barrier Membrane for the Prevention of Abdominal and Peri-hepatic Adhesion in Patients With Colorectal Cancer Requiring Two-stage Surgery for the Resection of Hepatic Metastases</t>
-  </si>
-  <si>
-    <t>Randomized Study of Normal-fractionated Radiotherapy Versus Hypofractionated Radiotherapy Versus Chemotherapy in Patients Over 60 Years With Malignant Glioma</t>
-  </si>
-  <si>
-    <t>Randomized Evaluation of a Positioning Pillow for Lumbar Puncture in Paediatric Hematology-Oncology</t>
+    <t>Randomized, Prospective, Single-center Trial Comparing the Efficacy of Peripherally Inserted Central Catheter (PICC) Placement With the Addition of Cyanoacrylate Glue Versus PICC Placement Alone (Without Glue) in Patients With Cancer.</t>
+  </si>
+  <si>
+    <t>CABRAMET: A Phase 2 Study of Cabozantinib in Metastatic Renal Cell Carcinoma (mRCC) With Brain Metastases</t>
+  </si>
+  <si>
+    <t>A Feasibility Study Evaluating Connected Bikes as a Means of Adapted Physical Activity in Children, Adolescents and Young Adults Requiring Hematopoietic Stem Cell Transplantation</t>
+  </si>
+  <si>
+    <t>A multicenter, randomised, open-label Phase II study to evaluate the clinical benefit of a post-operative treatment associating radiotherapy + Nivolumab + Ipilimumab versus radiotherapy + Capecitabine for triple negative breast cancer patients with residual disease after neoadjuvant chemotherapy. 
+ Etude multicentrique de Phase II, randomisée, menée en ouvert visant à évaluer le bénéfice clinique d’un traitement post-opératoire associant radiothérapie + Nivolumab + Ipilimumab versus radiothérapie + Capécitabine chez des patientes atteintes d’un cancer du sein triple négatif et présentant une maladie résiduelle après chimiothérapie néoadjuvante.</t>
   </si>
   <si>
     <t>An Phase II trial aiming to evaluate the clinical interest of ABEMACICLIB monotherapy in patients with locally advanced/metastatic head and neck cancer after failure of platinum and cetuximab or anti-EGFR-based therapy and harboring an homozygous deletion of CDKN2A, and/or an amplification of CCND1 and/or of CDK6 
  AB-ORL - Etude de Phase II visant à évaluer l’intérêt clinique d’une monothérapie par abemaciclib chez des patients atteints d’un cancer de la tête et du cou localement avancé ou métastatique après échec d’une thérapie à base de platine et de cetuximab ou anti-EGFR, et présentant une délétion homozygote du gène CDKN2A, et/ou une amplification du gène CCND1 et/ou du gène CDK6.</t>
   </si>
   <si>
-    <t>A multicenter, randomised, open-label Phase II study to evaluate the clinical benefit of a post-operative treatment associating radiotherapy + Nivolumab + Ipilimumab versus radiotherapy + Capecitabine for triple negative breast cancer patients with residual disease after neoadjuvant chemotherapy. 
- Etude multicentrique de Phase II, randomisée, menée en ouvert visant à évaluer le bénéfice clinique d’un traitement post-opératoire associant radiothérapie + Nivolumab + Ipilimumab versus radiothérapie + Capécitabine chez des patientes atteintes d’un cancer du sein triple négatif et présentant une maladie résiduelle après chimiothérapie néoadjuvante.</t>
+    <t>Randomized Study of Normal-fractionated Radiotherapy Versus Hypofractionated Radiotherapy Versus Chemotherapy in Patients Over 60 Years With Malignant Glioma</t>
+  </si>
+  <si>
+    <t>Evaluationof the Efficiency of a Resorbable Barrier Membrane for the Prevention of Abdominal and Peri-hepatic Adhesion in Patients With Colorectal Cancer Requiring Two-stage Surgery for the Resection of Hepatic Metastases</t>
+  </si>
+  <si>
+    <t>Randomized Evaluation of a Positioning Pillow for Lumbar Puncture in Paediatric Hematology-Oncology</t>
   </si>
   <si>
     <t>INVIBO</t>
@@ -578,12 +578,12 @@
     <t>GAS2PLUS</t>
   </si>
   <si>
+    <t>TORAVA</t>
+  </si>
+  <si>
     <t>ESTIM</t>
   </si>
   <si>
-    <t>TORAVA</t>
-  </si>
-  <si>
     <t>ESTIM-LBH</t>
   </si>
   <si>
@@ -593,132 +593,123 @@
     <t>PVNS</t>
   </si>
   <si>
+    <t>VERSATIS</t>
+  </si>
+  <si>
     <t>PASAPAS</t>
   </si>
   <si>
-    <t>VERSATIS</t>
+    <t>HBC</t>
   </si>
   <si>
     <t>AVECC</t>
   </si>
   <si>
-    <t>HBC</t>
+    <t>HEPATOFLUO</t>
   </si>
   <si>
     <t>DPO</t>
   </si>
   <si>
-    <t>HEPATOFLUO</t>
-  </si>
-  <si>
     <t>PAZOGIST</t>
   </si>
   <si>
     <t>StoRM</t>
   </si>
   <si>
+    <t>ABLE</t>
+  </si>
+  <si>
     <t>OSII-TTP</t>
   </si>
   <si>
     <t>REVENRI</t>
   </si>
   <si>
-    <t>ABLE</t>
+    <t>PIK-ORL</t>
+  </si>
+  <si>
+    <t>AXIPAP</t>
+  </si>
+  <si>
+    <t>PREVAPAJA</t>
+  </si>
+  <si>
+    <t>CHEMOIMMUNE</t>
+  </si>
+  <si>
+    <t>IsereADOM</t>
   </si>
   <si>
     <t>PAZOTHYR 
  PAZOTHYR</t>
   </si>
   <si>
-    <t>AXIPAP</t>
-  </si>
-  <si>
-    <t>IsereADOM</t>
-  </si>
-  <si>
-    <t>PREVAPAJA</t>
-  </si>
-  <si>
-    <t>CHEMOIMMUNE</t>
-  </si>
-  <si>
     <t>MEDIPLEX</t>
   </si>
   <si>
-    <t>PIK-ORL</t>
-  </si>
-  <si>
     <t>midP</t>
   </si>
   <si>
     <t>CRYOSE01</t>
   </si>
   <si>
+    <t>SBRT</t>
+  </si>
+  <si>
     <t>CICAFIX</t>
+  </si>
+  <si>
+    <t>BIBW2992ORL</t>
+  </si>
+  <si>
+    <t>ONCOVID-21</t>
   </si>
   <si>
     <t>CICA-RT 
  CICA-RT</t>
   </si>
   <si>
-    <t>ONCOVID-21</t>
-  </si>
-  <si>
-    <t>SBRT</t>
-  </si>
-  <si>
-    <t>BIBW2992ORL</t>
-  </si>
-  <si>
     <t>IMMUNONCOVID</t>
   </si>
   <si>
     <t>PROFILER 02</t>
   </si>
   <si>
+    <t>CATRIPCA</t>
+  </si>
+  <si>
     <t>ISI-JX</t>
   </si>
   <si>
     <t>DISCO</t>
   </si>
   <si>
-    <t>CATRIPCA</t>
+    <t>ABORL</t>
   </si>
   <si>
     <t>NP137</t>
   </si>
   <si>
-    <t>ABORL</t>
+    <t>CS3T</t>
   </si>
   <si>
     <t>LIBELULE</t>
   </si>
   <si>
+    <t>ImadGist</t>
+  </si>
+  <si>
+    <t>OCAPI</t>
+  </si>
+  <si>
     <t>TRAHD</t>
   </si>
   <si>
-    <t>ImadGist</t>
-  </si>
-  <si>
-    <t>OCAPI</t>
-  </si>
-  <si>
-    <t>CS3T</t>
-  </si>
-  <si>
-    <t>CABRAMET</t>
-  </si>
-  <si>
     <t>LENVAGIST</t>
   </si>
   <si>
-    <t>EVAADE</t>
-  </si>
-  <si>
     <t>ERICA</t>
-  </si>
-  <si>
-    <t>PICCandGLUE</t>
   </si>
   <si>
     <t>Frail-Immune 
@@ -728,14 +719,23 @@
     <t>FRAIL-IMMUNE</t>
   </si>
   <si>
-    <t>SEPRAC2T</t>
+    <t>PICCandGLUE</t>
+  </si>
+  <si>
+    <t>CABRAMET</t>
+  </si>
+  <si>
+    <t>EVAADE</t>
+  </si>
+  <si>
+    <t>BreastImmune03</t>
   </si>
   <si>
     <t>ABORL 
  ABORL</t>
   </si>
   <si>
-    <t>BreastImmune03</t>
+    <t>SEPRAC2T</t>
   </si>
   <si>
     <t>DRUG</t>
@@ -1291,8 +1291,8 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>81</v>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>101</v>
@@ -1302,6 +1302,9 @@
       </c>
       <c r="H8" t="s">
         <v>186</v>
+      </c>
+      <c r="I8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1311,8 +1314,8 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
+      <c r="D9" t="s">
+        <v>81</v>
       </c>
       <c r="F9" t="s">
         <v>101</v>
@@ -1322,9 +1325,6 @@
       </c>
       <c r="H9" t="s">
         <v>187</v>
-      </c>
-      <c r="I9" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1343,9 +1343,6 @@
       <c r="G10" t="s">
         <v>122</v>
       </c>
-      <c r="H10" t="s">
-        <v>188</v>
-      </c>
       <c r="I10" t="s">
         <v>238</v>
       </c>
@@ -1367,7 +1364,7 @@
         <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I11" t="s">
         <v>238</v>
@@ -1375,17 +1372,14 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>82</v>
-      </c>
       <c r="F12" t="s">
         <v>102</v>
       </c>
@@ -1393,7 +1387,7 @@
         <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I12" t="s">
         <v>238</v>
@@ -1401,30 +1395,36 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
       <c r="F13" t="s">
         <v>102</v>
       </c>
       <c r="G13" t="s">
         <v>125</v>
       </c>
+      <c r="H13" t="s">
+        <v>190</v>
+      </c>
       <c r="I13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1436,15 +1436,15 @@
         <v>126</v>
       </c>
       <c r="I14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1454,9 +1454,6 @@
       </c>
       <c r="G15" t="s">
         <v>127</v>
-      </c>
-      <c r="H15" t="s">
-        <v>191</v>
       </c>
       <c r="I15" t="s">
         <v>240</v>
@@ -1472,22 +1469,28 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
       <c r="F16" t="s">
         <v>103</v>
       </c>
       <c r="G16" t="s">
         <v>128</v>
       </c>
+      <c r="H16" t="s">
+        <v>191</v>
+      </c>
       <c r="I16" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -1499,7 +1502,7 @@
         <v>129</v>
       </c>
       <c r="I17" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1518,8 +1521,11 @@
       <c r="G18" t="s">
         <v>130</v>
       </c>
+      <c r="H18" t="s">
+        <v>192</v>
+      </c>
       <c r="I18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1533,7 +1539,7 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
         <v>103</v>
@@ -1542,7 +1548,7 @@
         <v>131</v>
       </c>
       <c r="H19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I19" t="s">
         <v>238</v>
@@ -1564,26 +1570,20 @@
       <c r="G20" t="s">
         <v>132</v>
       </c>
-      <c r="H20" t="s">
-        <v>193</v>
-      </c>
       <c r="I20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
       <c r="F21" t="s">
         <v>103</v>
       </c>
@@ -1594,15 +1594,15 @@
         <v>194</v>
       </c>
       <c r="I21" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -1617,15 +1617,15 @@
         <v>195</v>
       </c>
       <c r="I22" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -1640,15 +1640,15 @@
         <v>196</v>
       </c>
       <c r="I23" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -1719,9 +1719,6 @@
       <c r="C27" t="s">
         <v>41</v>
       </c>
-      <c r="D27" t="s">
-        <v>85</v>
-      </c>
       <c r="F27" t="s">
         <v>107</v>
       </c>
@@ -1732,19 +1729,22 @@
         <v>199</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
       </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
       <c r="F28" t="s">
         <v>107</v>
       </c>
@@ -1755,15 +1755,15 @@
         <v>200</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
@@ -1778,15 +1778,15 @@
         <v>201</v>
       </c>
       <c r="I29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -1855,14 +1855,17 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
       </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
       <c r="F33" t="s">
         <v>108</v>
       </c>
@@ -1873,22 +1876,19 @@
         <v>205</v>
       </c>
       <c r="I33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s">
-        <v>87</v>
-      </c>
       <c r="F34" t="s">
         <v>108</v>
       </c>
@@ -1899,19 +1899,22 @@
         <v>206</v>
       </c>
       <c r="I34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>49</v>
       </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
       <c r="F35" t="s">
         <v>108</v>
       </c>
@@ -1927,17 +1930,14 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
       </c>
-      <c r="D36" t="s">
-        <v>88</v>
-      </c>
       <c r="F36" t="s">
         <v>108</v>
       </c>
@@ -2017,18 +2017,18 @@
         <v>211</v>
       </c>
       <c r="I39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
       </c>
       <c r="F40" t="s">
         <v>110</v>
@@ -2039,6 +2039,9 @@
       <c r="H40" t="s">
         <v>212</v>
       </c>
+      <c r="I40" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
@@ -2048,7 +2051,7 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
         <v>110</v>
@@ -2056,22 +2059,22 @@
       <c r="G41" t="s">
         <v>153</v>
       </c>
-      <c r="H41" t="s">
-        <v>213</v>
-      </c>
       <c r="I41" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>89</v>
       </c>
       <c r="F42" t="s">
         <v>110</v>
@@ -2080,24 +2083,21 @@
         <v>154</v>
       </c>
       <c r="H42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F43" t="s">
         <v>110</v>
@@ -2106,21 +2106,21 @@
         <v>155</v>
       </c>
       <c r="H43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I43" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
       </c>
       <c r="F44" t="s">
         <v>110</v>
@@ -2129,10 +2129,7 @@
         <v>156</v>
       </c>
       <c r="H44" t="s">
-        <v>216</v>
-      </c>
-      <c r="I44" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2152,10 +2149,10 @@
         <v>157</v>
       </c>
       <c r="H45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I45" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2174,16 +2171,19 @@
       <c r="G46" t="s">
         <v>158</v>
       </c>
+      <c r="H46" t="s">
+        <v>217</v>
+      </c>
       <c r="I46" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
@@ -2198,15 +2198,15 @@
         <v>218</v>
       </c>
       <c r="I47" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
@@ -2221,15 +2221,15 @@
         <v>219</v>
       </c>
       <c r="I48" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
@@ -2244,15 +2244,15 @@
         <v>220</v>
       </c>
       <c r="I49" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -2272,10 +2272,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
@@ -2313,7 +2313,7 @@
         <v>223</v>
       </c>
       <c r="I52" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2336,7 +2336,7 @@
         <v>224</v>
       </c>
       <c r="I53" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2364,10 +2364,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -2378,8 +2378,11 @@
       <c r="G55" t="s">
         <v>167</v>
       </c>
+      <c r="H55" t="s">
+        <v>226</v>
+      </c>
       <c r="I55" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2404,10 +2407,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
@@ -2418,11 +2421,8 @@
       <c r="G57" t="s">
         <v>169</v>
       </c>
-      <c r="H57" t="s">
-        <v>226</v>
-      </c>
       <c r="I57" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2445,7 +2445,7 @@
         <v>227</v>
       </c>
       <c r="I58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2476,17 +2476,14 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>73</v>
       </c>
-      <c r="E60" t="s">
-        <v>95</v>
-      </c>
       <c r="F60" t="s">
         <v>113</v>
       </c>
@@ -2497,7 +2494,7 @@
         <v>229</v>
       </c>
       <c r="I60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2507,8 +2504,8 @@
       <c r="B61" t="s">
         <v>13</v>
       </c>
-      <c r="C61" t="s">
-        <v>74</v>
+      <c r="D61" t="s">
+        <v>91</v>
       </c>
       <c r="F61" t="s">
         <v>113</v>
@@ -2519,19 +2516,16 @@
       <c r="H61" t="s">
         <v>230</v>
       </c>
-      <c r="I61" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s">
         <v>113</v>
@@ -2543,7 +2537,7 @@
         <v>231</v>
       </c>
       <c r="I62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2554,7 +2548,7 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
         <v>113</v>
@@ -2576,8 +2570,11 @@
       <c r="B64" t="s">
         <v>13</v>
       </c>
-      <c r="D64" t="s">
-        <v>91</v>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" t="s">
+        <v>95</v>
       </c>
       <c r="F64" t="s">
         <v>113</v>
@@ -2588,6 +2585,9 @@
       <c r="H64" t="s">
         <v>233</v>
       </c>
+      <c r="I64" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
@@ -2609,18 +2609,18 @@
         <v>234</v>
       </c>
       <c r="I65" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" t="s">
-        <v>78</v>
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>92</v>
       </c>
       <c r="G66" t="s">
         <v>178</v>
@@ -2628,9 +2628,6 @@
       <c r="H66" t="s">
         <v>235</v>
       </c>
-      <c r="I66" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
@@ -2639,65 +2636,68 @@
       <c r="B67" t="s">
         <v>13</v>
       </c>
-      <c r="C67" t="s">
-        <v>79</v>
+      <c r="D67" t="s">
+        <v>93</v>
       </c>
       <c r="G67" t="s">
         <v>179</v>
       </c>
-      <c r="I67" t="s">
-        <v>241</v>
+      <c r="H67" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s">
         <v>180</v>
       </c>
       <c r="I68" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" t="s">
-        <v>92</v>
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
       </c>
       <c r="G69" t="s">
         <v>181</v>
       </c>
       <c r="H69" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="I69" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" t="s">
-        <v>93</v>
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
       </c>
       <c r="G70" t="s">
         <v>182</v>
       </c>
-      <c r="H70" t="s">
-        <v>237</v>
+      <c r="I70" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
+++ b/publipostage2/01cmnjq37/liste_essais_cliniques_identifies_01cmnjq37.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="263">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00291369</t>
@@ -91,109 +91,115 @@
     <t>NCT00367861</t>
   </si>
   <si>
+    <t>NCT01261429</t>
+  </si>
+  <si>
+    <t>NCT01202032</t>
+  </si>
+  <si>
     <t>NCT01136499</t>
   </si>
   <si>
-    <t>NCT01202032</t>
-  </si>
-  <si>
-    <t>NCT01261429</t>
+    <t>NCT01246427</t>
+  </si>
+  <si>
+    <t>NCT00349102</t>
+  </si>
+  <si>
+    <t>NCT01331772</t>
+  </si>
+  <si>
+    <t>NCT01314300</t>
   </si>
   <si>
     <t>NCT01368107</t>
   </si>
   <si>
+    <t>NCT01696630</t>
+  </si>
+  <si>
+    <t>NCT01405430</t>
+  </si>
+  <si>
     <t>NCT00905281</t>
   </si>
   <si>
-    <t>NCT01314300</t>
-  </si>
-  <si>
-    <t>NCT00349102</t>
-  </si>
-  <si>
-    <t>NCT01331772</t>
-  </si>
-  <si>
-    <t>NCT01246427</t>
-  </si>
-  <si>
-    <t>NCT01696630</t>
-  </si>
-  <si>
-    <t>NCT01405430</t>
-  </si>
-  <si>
     <t>NCT01738217</t>
   </si>
   <si>
     <t>NCT01194843</t>
   </si>
   <si>
+    <t>NCT01308034</t>
+  </si>
+  <si>
     <t>NCT01323400</t>
   </si>
   <si>
-    <t>NCT01308034</t>
-  </si>
-  <si>
     <t>NCT01460186</t>
   </si>
   <si>
+    <t>NCT03418597</t>
+  </si>
+  <si>
+    <t>NCT00978471</t>
+  </si>
+  <si>
     <t>NCT03148886</t>
   </si>
   <si>
-    <t>NCT00978471</t>
-  </si>
-  <si>
-    <t>NCT03418597</t>
+    <t>NCT03330730</t>
+  </si>
+  <si>
+    <t>NCT02489695</t>
+  </si>
+  <si>
+    <t>NCT01813136</t>
+  </si>
+  <si>
+    <t>NCT03336905</t>
+  </si>
+  <si>
+    <t>NCT03139851</t>
+  </si>
+  <si>
+    <t>NCT02777710</t>
   </si>
   <si>
     <t>NCT01737450</t>
   </si>
   <si>
-    <t>NCT02489695</t>
-  </si>
-  <si>
-    <t>NCT03336905</t>
-  </si>
-  <si>
-    <t>NCT03139851</t>
-  </si>
-  <si>
-    <t>NCT03330730</t>
-  </si>
-  <si>
-    <t>NCT01813136</t>
-  </si>
-  <si>
-    <t>NCT02777710</t>
-  </si>
-  <si>
     <t>NCT01635270</t>
   </si>
   <si>
     <t>NCT02576106</t>
   </si>
   <si>
+    <t>NCT01427478</t>
+  </si>
+  <si>
+    <t>NCT04333914</t>
+  </si>
+  <si>
+    <t>NCT03163732</t>
+  </si>
+  <si>
+    <t>NCT02104986</t>
+  </si>
+  <si>
+    <t>NCT04510454</t>
+  </si>
+  <si>
     <t>NCT02013297</t>
   </si>
   <si>
     <t>NCT03421912</t>
   </si>
   <si>
-    <t>NCT02104986</t>
-  </si>
-  <si>
-    <t>NCT01427478</t>
-  </si>
-  <si>
-    <t>NCT04510454</t>
-  </si>
-  <si>
-    <t>NCT04333914</t>
-  </si>
-  <si>
-    <t>NCT03163732</t>
+    <t>NCT03356223</t>
+  </si>
+  <si>
+    <t>NCT03529383</t>
   </si>
   <si>
     <t>NCT03871959</t>
@@ -202,42 +208,42 @@
     <t>NCT02977156</t>
   </si>
   <si>
-    <t>NCT03529383</t>
-  </si>
-  <si>
-    <t>NCT03356223</t>
-  </si>
-  <si>
     <t>NCT02977195</t>
   </si>
   <si>
+    <t>NCT03714958</t>
+  </si>
+  <si>
+    <t>NCT03721120</t>
+  </si>
+  <si>
+    <t>NCT02260505</t>
+  </si>
+  <si>
+    <t>NCT05568667</t>
+  </si>
+  <si>
     <t>NCT05881148</t>
   </si>
   <si>
-    <t>NCT03721120</t>
-  </si>
-  <si>
-    <t>NCT02260505</t>
+    <t>NCT05273931</t>
   </si>
   <si>
     <t>NCT04052126</t>
   </si>
   <si>
-    <t>NCT05273931</t>
-  </si>
-  <si>
-    <t>NCT05568667</t>
-  </si>
-  <si>
-    <t>NCT03714958</t>
-  </si>
-  <si>
     <t>NCT04193553</t>
   </si>
   <si>
     <t>NCT04676009</t>
   </si>
   <si>
+    <t>NCT05298930</t>
+  </si>
+  <si>
+    <t>NCT04391556</t>
+  </si>
+  <si>
     <t>NCT03723967</t>
   </si>
   <si>
@@ -247,54 +253,81 @@
     <t>NCT03967522</t>
   </si>
   <si>
-    <t>NCT05298930</t>
+    <t>NCT00775112</t>
+  </si>
+  <si>
+    <t>NCT01262417</t>
   </si>
   <si>
     <t>NCT00820963</t>
   </si>
   <si>
-    <t>NCT01262417</t>
-  </si>
-  <si>
-    <t>NCT00775112</t>
+    <t>2010-018869-29</t>
   </si>
   <si>
     <t>2009-011280-37</t>
   </si>
   <si>
-    <t>2010-018869-29</t>
+    <t>2009-009867-70</t>
   </si>
   <si>
     <t>2010-023461-22</t>
   </si>
   <si>
-    <t>2009-009867-70</t>
+    <t>2011-000226-30</t>
+  </si>
+  <si>
+    <t>2012-002155-41</t>
+  </si>
+  <si>
+    <t>2007-007968-19</t>
+  </si>
+  <si>
+    <t>2010-021551-11</t>
   </si>
   <si>
     <t>2009-009899-12</t>
   </si>
   <si>
+    <t>2012-003162-41</t>
+  </si>
+  <si>
+    <t>2016-002736-33</t>
+  </si>
+  <si>
+    <t>2015-002438-31</t>
+  </si>
+  <si>
     <t>2012-002403-18</t>
   </si>
   <si>
-    <t>2016-002736-33</t>
-  </si>
-  <si>
-    <t>2012-003162-41</t>
-  </si>
-  <si>
     <t>2010-023265-22</t>
   </si>
   <si>
+    <t>2020-001373-70</t>
+  </si>
+  <si>
     <t>2019-001711-23</t>
   </si>
   <si>
+    <t>2015-003907-41</t>
+  </si>
+  <si>
+    <t>2013-001372-37</t>
+  </si>
+  <si>
+    <t>2021-003042-20</t>
+  </si>
+  <si>
     <t>2018-000414-38</t>
   </si>
   <si>
     <t>2017-003151-34</t>
   </si>
   <si>
+    <t>2021-000571-37</t>
+  </si>
+  <si>
     <t>2016-004537-25</t>
   </si>
   <si>
@@ -379,119 +412,122 @@
     <t>Open Label, Randomized, Multicenter Phase II Study of a Combination of Torisel® (Temsirolimus) and Avastin® (Bevacizumab) Versus Sutent® (Sunitinib) and Versus a Combination of Avastin® (Bevacizumab) and Roféron® (Interferon Alpha-2a) in First-line Treatment of Patients With Metastatic Renal Cell Carcinoma.</t>
   </si>
   <si>
-    <t>Efficacy and safety assessment of oral LBH589 in adult patients with advanced soft tissue sarcoma after doxorubicin failure: an open-label, multi-centric phase II study</t>
-  </si>
-  <si>
     <t>A Prospective Multicentric Randomized Study of Glivec® in Patients With Advanced Gastrointestinal Stromal Tumors Expressing C-kit Comparing Treatment Interruption After 5 Years vs Treatment Maintenance</t>
   </si>
   <si>
+    <t>Phase II Study of Nilotinib Efficacy in Pigmented Villo-Nodular Synovitis/ Tenosynovial Giant Cell Tumour (PVNS/TGCT)</t>
+  </si>
+  <si>
+    <t>Bevacizumab in Patients With Metastatic Renal Cell Carcinoma or Others Advanced Solid Tumors</t>
+  </si>
+  <si>
     <t>Efficacy and Safety Assessment of Oral LBH589 in Adult Patients With Advanced Soft Tissue Sarcoma After Pre-treatment Failure: an Open-label, Multicenter Phase II Study</t>
   </si>
   <si>
-    <t>Bevacizumab in Patients With Metastatic Renal Cell Carcinoma or Others Advanced Solid Tumors</t>
-  </si>
-  <si>
-    <t>Phase II Study of Nilotinib Efficacy in Pigmented Villo-Nodular Synovitis/ Tenosynovial Giant Cell Tumour (PVNS/TGCT)</t>
+    <t>Placebo-controlled Evaluation of the Homeopathic Drug BRN01 for the Treatment of Hot Flashes in Women With Non Metastatic Breast Cancer Treated by Adjuvant Hormonal Therapy</t>
+  </si>
+  <si>
+    <t>Evaluation of the Interest of Breath Holding for the Prevention of Radiation Pneumonitis Following Conformal Radiation Therapy</t>
+  </si>
+  <si>
+    <t>Randomized Controlled Study Assessing the Feasibility and the Medico-economic Impact of Nutritional Intervention in Women With Breast Cancer Under Adjuvant Chemotherapy</t>
+  </si>
+  <si>
+    <t>VERSATIS - Efficacy and Safety of Lidocaine 5% Plasters (Versatis® 5%) in Child, Adolescents and Young Adults With Neuropathic Pains or Vasoocclusive Sickle Cell Crisis Pains</t>
   </si>
   <si>
     <t>A Randomised, Multicentric, Phase 2a Study Evaluating the Impact of an Immunotherapy by IL-7 on CD4 Lymphopenia, Risks of Severe Haematological Toxicity and Tumor Progression in Metastatic Breast Cancer Patients</t>
   </si>
   <si>
+    <t>Phase II Study, Randomized, Monocentric, Single-blind, Comparing the Efficacy of Xenon and Desflurane, in Association With a Thoracic Epidural Analgesia in the Maintenance Phase of a Colorectal Oncologic Surgery</t>
+  </si>
+  <si>
+    <t>Exploration of New Biologic Factors' Predictive Value , Especially Circulating VE-cadherin in Metastatic Colorectal Adenocarcinoma Patients Treated With Bevacizumab</t>
+  </si>
+  <si>
     <t>Randomized Controlled Trial Assessing the Impact of Routine "Oncologist-supportive Care Team" Consultation on the Use of an Additional Line of Chemotherapy in Metastatic Breast Cancer Patients</t>
   </si>
   <si>
-    <t>VERSATIS - Efficacy and Safety of Lidocaine 5% Plasters (Versatis® 5%) in Child, Adolescents and Young Adults With Neuropathic Pains or Vasoocclusive Sickle Cell Crisis Pains</t>
-  </si>
-  <si>
-    <t>Evaluation of the Interest of Breath Holding for the Prevention of Radiation Pneumonitis Following Conformal Radiation Therapy</t>
-  </si>
-  <si>
-    <t>Randomized Controlled Study Assessing the Feasibility and the Medico-economic Impact of Nutritional Intervention in Women With Breast Cancer Under Adjuvant Chemotherapy</t>
-  </si>
-  <si>
-    <t>Placebo-controlled Evaluation of the Homeopathic Drug BRN01 for the Treatment of Hot Flashes in Women With Non Metastatic Breast Cancer Treated by Adjuvant Hormonal Therapy</t>
-  </si>
-  <si>
-    <t>Phase II Study, Randomized, Monocentric, Single-blind, Comparing the Efficacy of Xenon and Desflurane, in Association With a Thoracic Epidural Analgesia in the Maintenance Phase of a Colorectal Oncologic Surgery</t>
-  </si>
-  <si>
-    <t>Exploration of New Biologic Factors' Predictive Value , Especially Circulating VE-cadherin in Metastatic Colorectal Adenocarcinoma Patients Treated With Bevacizumab</t>
-  </si>
-  <si>
     <t>Evaluation, for Patients Requiring a Liver Cancer Surgery, of the Use of Fluorescence Imaging Device: Faisability and Efficiency of Lesional and/or Anatomical Marking</t>
   </si>
   <si>
     <t>A Double-blind Placebo-controlled Evaluation of Ropivacaine Efficacy by Local Per and Post Hepatectomy Infiltrations for Adult Pain Management</t>
   </si>
   <si>
+    <t>Phase I Study of Continuous Dosing of Sunitinib in Non GIST Sarcomas With Concomitant Radiotherapy</t>
+  </si>
+  <si>
     <t>A Phase II Randomized Multicentre Study Evaluating the Efficacy of Pazopanib+Best Supportive Care (BSC) Versus BSC Alone in Metastatic and/or Locally Advanced Unresectable GIST, Resistant to Imatinib and Sunitinib</t>
   </si>
   <si>
-    <t>Phase I Study of Continuous Dosing of Sunitinib in Non GIST Sarcomas With Concomitant Radiotherapy</t>
-  </si>
-  <si>
     <t>Evaluation of the Predictive and Prognostic Value of Germ-line Polymorphisms in Patients With Metastatic Breast Cancer : a Multicenter Non-randomized Prospective Cohort Study</t>
   </si>
   <si>
+    <t>Randomized, Monocentric, Controlled, Superiority Phase II Trial Evaluating Clinical Hypnosis Using Virtural Reality vs Standard Pain Management Procedure During a Musculoskelettal Biopsy</t>
+  </si>
+  <si>
+    <t>Efficacy and Tolerance Adjuvant High-Dose Thiotepa With Peripheral Stem Cell Rescue Associated With Conventional Chemotherapy in Children and Adults With Relapsed Osteosarcoma</t>
+  </si>
+  <si>
     <t>Advanced Breast Cancer and Lifestyle Exercise Study</t>
   </si>
   <si>
-    <t>Efficacy and Tolerance Adjuvant High-Dose Thiotepa With Peripheral Stem Cell Rescue Associated With Conventional Chemotherapy in Children and Adults With Relapsed Osteosarcoma</t>
-  </si>
-  <si>
-    <t>Randomized, Monocentric, Controlled, Superiority Phase II Trial Evaluating Clinical Hypnosis Using Virtural Reality vs Standard Pain Management Procedure During a Musculoskelettal Biopsy</t>
+    <t>A Randomized, Controlled, Multicenter, Prospective, Open Study Evaluating the Efficiency of the IsereADOM Home-care Service Package in the Prevention of Unplanned Hospitalizations of Patients With Cancer</t>
+  </si>
+  <si>
+    <t>Multicenter Phase II Study of Axitinib in First Line Treatment for Patients With Locally Advanced or Metastatic Papillary Renal Cell Carcinoma (PRCC)</t>
+  </si>
+  <si>
+    <t>A Randomized, Multicenter, Open-label, Phase II Study of the Optimal Scheme of Administration of Pazopanib in Thyroid Carcinoma</t>
+  </si>
+  <si>
+    <t>Implementation of a Program Based on Adapted Physical Activity and Recommendations for Second Cancers Prevention for Teenagers and Young Adults With Cancer</t>
+  </si>
+  <si>
+    <t>CHEMOIMMUNE - A Phase II Study Evaluating an Anti-PD1 Monoclonal Antibody (Pembrolizumab) in Lymphopenic Metastatic Breast Cancer Patients Treated With Metronomic Cyclophosphamide</t>
+  </si>
+  <si>
+    <t>A Dose Escalation Phase I Study With an Extension Part Evaluating the Safety and Activity of an Anti-PDL1 Antibody (DURVALUMAB) Combined With a Small Molecule CSF-1R Tyrosine Kinase Inhibitor (PEXIDARTINIB) in Patients With Metastatic/Advanced Pancreatic or Colorectal Cancers</t>
   </si>
   <si>
     <t>A Phase II, Multicenter Trial Aiming to Evaluate the Clinical Interest of a Monotherapy With BKM120 , a Phosphoinositide 3-kinase (PI3K) Inhibitor in Patient With Metastatic Head and Neck Cancer Recurrent or Progressive Under Platin and Cetuximab-based Chemotherapy</t>
   </si>
   <si>
-    <t>Multicenter Phase II Study of Axitinib in First Line Treatment for Patients With Locally Advanced or Metastatic Papillary Renal Cell Carcinoma (PRCC)</t>
-  </si>
-  <si>
-    <t>Implementation of a Program Based on Adapted Physical Activity and Recommendations for Second Cancers Prevention for Teenagers and Young Adults With Cancer</t>
-  </si>
-  <si>
-    <t>CHEMOIMMUNE - A Phase II Study Evaluating an Anti-PD1 Monoclonal Antibody (Pembrolizumab) in Lymphopenic Metastatic Breast Cancer Patients Treated With Metronomic Cyclophosphamide</t>
-  </si>
-  <si>
-    <t>A Randomized, Controlled, Multicenter, Prospective, Open Study Evaluating the Efficiency of the IsereADOM Home-care Service Package in the Prevention of Unplanned Hospitalizations of Patients With Cancer</t>
-  </si>
-  <si>
-    <t>A Randomized, Multicenter, Open-label, Phase II Study of the Optimal Scheme of Administration of Pazopanib in Thyroid Carcinoma</t>
-  </si>
-  <si>
-    <t>A Dose Escalation Phase I Study With an Extension Part Evaluating the Safety and Activity of an Anti-PDL1 Antibody (DURVALUMAB) Combined With a Small Molecule CSF-1R Tyrosine Kinase Inhibitor (PEXIDARTINIB) in Patients With Metastatic/Advanced Pancreatic or Colorectal Cancers</t>
-  </si>
-  <si>
     <t>Randomized Phase 2 Study Evaluating the Interest of Mid-position Strategy Versus ITV (Internal Target Volume) Strategy in Radiotherapy Treatment for Patients With a Locally Advanced Non-resected Non-small Cell Lung Carcinoma (NSCLC).</t>
   </si>
   <si>
     <t>Evaluation of Percutaneous Treatment by Cryoablation of Unifocal Invasive Breast Carcinoma in Menopausal Women With Indication of Lumpectomy</t>
   </si>
   <si>
-    <t>Hypofractionated Stereotactic Radiation Treatments (SBRT) on Children, Teenagers and Young Adults Malignant Tumors</t>
-  </si>
-  <si>
-    <t>Comparative Monocentric Randomized Study Evaluating the Satisfaction and Quality of Life of Patients Using Cicaplast Baume B5 Versus Dexeryl for the Management of Cutaneous Toxicities Induced by Epidermal Growth Factor Receptor Inhibitors (iEGRF) in Carcinomas Squamous Cells of the Head and Neck, Colorectal Cancers or Lung Cancers</t>
+    <t>A Randomized, Double-blind, Placebo-controlled Phase III Study, to Evaluate the Efficacy of Afatinib (BIBW2992) in Maintenance Therapy After Post- Operative Radio-chemotherapy in Squamous-cell Carcinoma of the Head and Neck: GORTEC 2010-02</t>
+  </si>
+  <si>
+    <t>A Prospective, Controlled, Randomized, Multicenter Study of the Efficacy of an Autophagy Inhibitor (GNS561), an Anti-NKG2A (Monalizumab) and an Anti-C5aR (Avdoralimab) Compared to the Standard of Care in Patients With Advanced or Metastatic Cancer and SARS-CoV-2 (COVID-19) Infection.</t>
+  </si>
+  <si>
+    <t>A Multicentric, Prospective Cohort Study Aiming to Evaluate the Added Value of a Large Molecular Profiling Panel (Panel FoundationOne) Versus a Limited Molecular Profiling Panel (Panel CONTROL) in Advanced Solid Tumors.</t>
   </si>
   <si>
     <t>A Multicenter Study to Evaluate a Risk-adapted Strategy for Treatment of Extra Cranial Non Seminomateous Malignant Germ Cell Tumour in Children and Adolescent</t>
-  </si>
-  <si>
-    <t>A Randomized, Double-blind, Placebo-controlled Phase III Study, to Evaluate the Efficacy of Afatinib (BIBW2992) in Maintenance Therapy After Post- Operative Radio-chemotherapy in Squamous-cell Carcinoma of the Head and Neck: GORTEC 2010-02</t>
-  </si>
-  <si>
-    <t>Evaluation of a ddPCR Technology for the SARS-CoV-2 Detection in Symptomatic Patients With Suspicion of COVID-19</t>
   </si>
   <si>
     <t>CICA-RT – Phase III randomized multicenter study evaluating Cicaderma® ointment efficacy versus the current practice of each center for the radiation dermatitis prevention in patients with non-metastatic breast cancer after adjuvant post-operative breast irradiation  
  CICA-RT – Etude multicentrique randomisée de phase III évaluant l’efficacité de la pommade Cicaderma® versus la pratique courante de chaque centre sur la prévention des radiodermites après prise en charge adjuvante par irradiation mammaire post-opératoire chez des patientes atteintes d’un cancer du sein non métastatique</t>
   </si>
   <si>
-    <t>A Prospective, Controlled, Randomized, Multicenter Study of the Efficacy of an Autophagy Inhibitor (GNS561), an Anti-NKG2A (Monalizumab) and an Anti-C5aR (Avdoralimab) Compared to the Standard of Care in Patients With Advanced or Metastatic Cancer and SARS-CoV-2 (COVID-19) Infection.</t>
-  </si>
-  <si>
-    <t>A Multicentric, Prospective Cohort Study Aiming to Evaluate the Added Value of a Large Molecular Profiling Panel (Panel FoundationOne) Versus a Limited Molecular Profiling Panel (Panel CONTROL) in Advanced Solid Tumors.</t>
+    <t>Evaluation of a ddPCR Technology for the SARS-CoV-2 Detection in Symptomatic Patients With Suspicion of COVID-19</t>
+  </si>
+  <si>
+    <t>Hypofractionated Stereotactic Radiation Treatments (SBRT) on Children, Teenagers and Young Adults Malignant Tumors</t>
+  </si>
+  <si>
+    <t>Comparative Monocentric Randomized Study Evaluating the Satisfaction and Quality of Life of Patients Using Cicaplast Baume B5 Versus Dexeryl for the Management of Cutaneous Toxicities Induced by Epidermal Growth Factor Receptor Inhibitors (iEGRF) in Carcinomas Squamous Cells of the Head and Neck, Colorectal Cancers or Lung Cancers</t>
+  </si>
+  <si>
+    <t>A Phase II Trial Aiming to Evaluate the Clinical Interest of ABEMACICLIB Monotherapy in Patients With Locally Advanced/Metastatic Head and Neck Cancer After Failure of Platinum and Cetuximab or Anti-EGFR-based Therapy and Harboring an Homozygous Deletion of CDKN2A, and/or an Amplification of CCND1 and/or of CDK6</t>
+  </si>
+  <si>
+    <t>Randomized Controlled Trial Evaluating the Efficacy of an Adapted Physical Activity Program Using a Connected Device With Activity Trackers and a Therapeutic Education Program Among Women With Localized Breast Cancer</t>
   </si>
   <si>
     <t>CATRIPCA - A Phase I Study of PD1 Monoclonal Antibody (Pembrolizumab) In Combination With a IAP Antagonist (Debio 1143) In (Exocrine) Pancreatic And Colorectal Non MSI-high Advanced/Metastatic Adenocarcinoma.</t>
@@ -500,46 +536,50 @@
     <t>A Phase I Dose Escalation Trial Evaluating the Impact of an in Situ Immunization Strategy With Intra-Tumoral Injections of Pexa-Vec in Combination With Ipilimumab in Metastatic / Advanced Solid Tumors With Injectable Lesions.</t>
   </si>
   <si>
-    <t>Randomized Controlled Trial Evaluating the Efficacy of an Adapted Physical Activity Program Using a Connected Device With Activity Trackers and a Therapeutic Education Program Among Women With Localized Breast Cancer</t>
-  </si>
-  <si>
-    <t>A Phase II Trial Aiming to Evaluate the Clinical Interest of ABEMACICLIB Monotherapy in Patients With Locally Advanced/Metastatic Head and Neck Cancer After Failure of Platinum and Cetuximab or Anti-EGFR-based Therapy and Harboring an Homozygous Deletion of CDKN2A, and/or an Amplification of CCND1 and/or of CDK6</t>
-  </si>
-  <si>
     <t>NP137 - An Open-label, First in Human, Phase I Trial Aiming to Evaluate the Safety, Pharmacokinetics, and Clinical Activity of a Humanized Monoclonal Antibody Targeting Netrin 1 (NP137) in Patients With Advanced/Metastatic Solid Tumors.</t>
   </si>
   <si>
+    <t>A Single-center, Phase 1 Dose Escalation Study of Trametinib Combined With HDM201 in Patients With RAS/RAF Mutant and TP53 Wild-type Advanced/Metastatic Colorectal Cancer.</t>
+  </si>
+  <si>
+    <t>A Randomized Phase III Clinical Trial to Evaluate the Feasibility and Clinical Relevance of Liquid Biopsy in Patients With Suspicious Metastatic Lung Cancer</t>
+  </si>
+  <si>
+    <t>A Randomized Multicenter Phase III Trial Evaluating the Interest of Imatinib Treatment Maintenance or Interruption After 3 Years of Adjuvant Treatment in Patients With Gastrointestinal Stromal Tumours (GIST)</t>
+  </si>
+  <si>
+    <t>Pilot Study to Improve Primary Prevention of Colorectal Cancer by Motivational and Community-based Approaches, According to Individual Risk Level, in People Undergoing Colonoscopy</t>
+  </si>
+  <si>
     <t>Carbon " Super Spikes " Performances on Sprint Acceleration : Just Use it? A Multiple N-of-1 Trial. A Multiple N-of-1 Trial in Healthy Athletes</t>
   </si>
   <si>
-    <t>A Randomized Phase III Clinical Trial to Evaluate the Feasibility and Clinical Relevance of Liquid Biopsy in Patients With Suspicious Metastatic Lung Cancer</t>
-  </si>
-  <si>
-    <t>A Randomized Multicenter Phase III Trial Evaluating the Interest of Imatinib Treatment Maintenance or Interruption After 3 Years of Adjuvant Treatment in Patients With Gastrointestinal Stromal Tumours (GIST)</t>
+    <t>Evaluation of a Lifestyle Intervention Among Participants of the French Colorectal Cancer Screening Program (LIFE-SCREEN Pilot)</t>
   </si>
   <si>
     <t>An Interventional Prospective Study to Test the Feasibility of an Individualized Physical Activity Program in Patients Over 65 Years of Age With Hematologic Malignancies: the OCAPI Project.</t>
   </si>
   <si>
-    <t>Evaluation of a Lifestyle Intervention Among Participants of the French Colorectal Cancer Screening Program (LIFE-SCREEN Pilot)</t>
-  </si>
-  <si>
-    <t>Pilot Study to Improve Primary Prevention of Colorectal Cancer by Motivational and Community-based Approaches, According to Individual Risk Level, in People Undergoing Colonoscopy</t>
-  </si>
-  <si>
-    <t>A Single-center, Phase 1 Dose Escalation Study of Trametinib Combined With HDM201 in Patients With RAS/RAF Mutant and TP53 Wild-type Advanced/Metastatic Colorectal Cancer.</t>
-  </si>
-  <si>
     <t>A Multicentre, Comparative, Placebo-controlled, Double-blinded, Phase II Study of the Efficacy of Lenvatinib in Patients With Locally Advanced or Metastatic GIST After Failure of Imatinib and Sunitinib</t>
   </si>
   <si>
-    <t>Feasibility of an Acute Physical Exercise Before Immunotherapy and Chemotherapy Infusion for Metastatic Non-small-cell Lung Cancer Patients: Protocol ERICA Study</t>
+    <t>PARPi-PANC - A multicentric, single arm, phase II trial assessing the efficacy of niraparib as first line therapy for patients with metastatic homologous repair-deficient pancreatic cancer 
+ PARPi-PANC - Etude multicentrique, monobras, de phase II évaluant l’efficacité du niraparib en première ligne de traitement chez les patients présentant un cancer du pancréas métastatique avec un déficit de la recombinaison homologue</t>
   </si>
   <si>
     <t>Frail-Immune (GORTEC-2018-03) - A multicenter, prospective, single arm phase II study evaluating the efficacy and safety of the combination of Durvalumab with carboplatin and paclitaxel as first line treatment in patients with recurrent/metastatic squamous cell carcinoma of the head and neck not eligible to standard chemotherapy 
  Frail-Immune (GORTEC-2018-03) - Etude de phase II, monobras, prospective, multicentrique évaluant l’efficacité et la tolérance de l’association du Durvalumab avec la Carboplatine et le Paclitaxel, en traitement de première ligne chez des patients porteurs d’un carcinome   épidermoïde de la tête et du cou récurrent / métastatique non éligibles à la chimiothérapie standard</t>
   </si>
   <si>
+    <t>Feasibility of an Acute Physical Exercise Before Immunotherapy and Chemotherapy Infusion for Metastatic Non-small-cell Lung Cancer Patients: Protocol ERICA Study</t>
+  </si>
+  <si>
+    <t>A Feasibility Study Evaluating Connected Bikes as a Means of Adapted Physical Activity in Children, Adolescents and Young Adults Requiring Hematopoietic Stem Cell Transplantation</t>
+  </si>
+  <si>
+    <t>Interest of PET-PSMA Imaging Potentiated by Androgen Blockade in Patients with Biological Relapse or Persistent Biological Disease of a Localized Prostatic Adenocarcinoma After Initial Treatment</t>
+  </si>
+  <si>
     <t>Multicenter Prospective Single Arm Phase II Study Evaluating Efficacy &amp; Safety of Durvalumab With Carboplatin/Paclitaxel as First Line Treatment in Patients With Recurrent/Metastatic SCCHN Not Eligible to Standard Chemotherapy</t>
   </si>
   <si>
@@ -547,28 +587,29 @@
   </si>
   <si>
     <t>CABRAMET: A Phase 2 Study of Cabozantinib in Metastatic Renal Cell Carcinoma (mRCC) With Brain Metastases</t>
-  </si>
-  <si>
-    <t>A Feasibility Study Evaluating Connected Bikes as a Means of Adapted Physical Activity in Children, Adolescents and Young Adults Requiring Hematopoietic Stem Cell Transplantation</t>
   </si>
   <si>
     <t>A multicenter, randomised, open-label Phase II study to evaluate the clinical benefit of a post-operative treatment associating radiotherapy + Nivolumab + Ipilimumab versus radiotherapy + Capecitabine for triple negative breast cancer patients with residual disease after neoadjuvant chemotherapy. 
  Etude multicentrique de Phase II, randomisée, menée en ouvert visant à évaluer le bénéfice clinique d’un traitement post-opératoire associant radiothérapie + Nivolumab + Ipilimumab versus radiothérapie + Capécitabine chez des patientes atteintes d’un cancer du sein triple négatif et présentant une maladie résiduelle après chimiothérapie néoadjuvante.</t>
   </si>
   <si>
+    <t>A multicenter, randomized, open-label phase II trial evaluating the association of Gadolinium-based nanoparticles (AGuIX®) with radiotherapy for the therapeutic management of patients with progressive / recurrent inoperable musculoskeletal tumor lesion. 
+ Etude de phase II multicentrique, randomisée, menée en ouvert, évaluant les nanoparticules AGuIX® en combinaison avec la radiothérapie pour le traitement des patients présentant une lésion musculo-squelettique progressive /récurrente inopérable.</t>
+  </si>
+  <si>
     <t>An Phase II trial aiming to evaluate the clinical interest of ABEMACICLIB monotherapy in patients with locally advanced/metastatic head and neck cancer after failure of platinum and cetuximab or anti-EGFR-based therapy and harboring an homozygous deletion of CDKN2A, and/or an amplification of CCND1 and/or of CDK6 
  AB-ORL - Etude de Phase II visant à évaluer l’intérêt clinique d’une monothérapie par abemaciclib chez des patients atteints d’un cancer de la tête et du cou localement avancé ou métastatique après échec d’une thérapie à base de platine et de cetuximab ou anti-EGFR, et présentant une délétion homozygote du gène CDKN2A, et/ou une amplification du gène CCND1 et/ou du gène CDK6.</t>
   </si>
   <si>
+    <t>Randomized Evaluation of a Positioning Pillow for Lumbar Puncture in Paediatric Hematology-Oncology</t>
+  </si>
+  <si>
+    <t>Evaluationof the Efficiency of a Resorbable Barrier Membrane for the Prevention of Abdominal and Peri-hepatic Adhesion in Patients With Colorectal Cancer Requiring Two-stage Surgery for the Resection of Hepatic Metastases</t>
+  </si>
+  <si>
     <t>Randomized Study of Normal-fractionated Radiotherapy Versus Hypofractionated Radiotherapy Versus Chemotherapy in Patients Over 60 Years With Malignant Glioma</t>
   </si>
   <si>
-    <t>Evaluationof the Efficiency of a Resorbable Barrier Membrane for the Prevention of Abdominal and Peri-hepatic Adhesion in Patients With Colorectal Cancer Requiring Two-stage Surgery for the Resection of Hepatic Metastases</t>
-  </si>
-  <si>
-    <t>Randomized Evaluation of a Positioning Pillow for Lumbar Puncture in Paediatric Hematology-Oncology</t>
-  </si>
-  <si>
     <t>INVIBO</t>
   </si>
   <si>
@@ -581,27 +622,24 @@
     <t>TORAVA</t>
   </si>
   <si>
-    <t>ESTIM</t>
+    <t>PVNS</t>
+  </si>
+  <si>
+    <t>PARASOL</t>
   </si>
   <si>
     <t>ESTIM-LBH</t>
   </si>
   <si>
-    <t>PARASOL</t>
-  </si>
-  <si>
-    <t>PVNS</t>
+    <t>HBC</t>
+  </si>
+  <si>
+    <t>PASAPAS</t>
   </si>
   <si>
     <t>VERSATIS</t>
   </si>
   <si>
-    <t>PASAPAS</t>
-  </si>
-  <si>
-    <t>HBC</t>
-  </si>
-  <si>
     <t>AVECC</t>
   </si>
   <si>
@@ -617,63 +655,69 @@
     <t>StoRM</t>
   </si>
   <si>
+    <t>REVENRI</t>
+  </si>
+  <si>
+    <t>OSII-TTP</t>
+  </si>
+  <si>
     <t>ABLE</t>
   </si>
   <si>
-    <t>OSII-TTP</t>
-  </si>
-  <si>
-    <t>REVENRI</t>
-  </si>
-  <si>
-    <t>PIK-ORL</t>
+    <t>IsereADOM</t>
   </si>
   <si>
     <t>AXIPAP</t>
-  </si>
-  <si>
-    <t>PREVAPAJA</t>
-  </si>
-  <si>
-    <t>CHEMOIMMUNE</t>
-  </si>
-  <si>
-    <t>IsereADOM</t>
   </si>
   <si>
     <t>PAZOTHYR 
  PAZOTHYR</t>
   </si>
   <si>
+    <t>PREVAPAJA</t>
+  </si>
+  <si>
+    <t>CHEMOIMMUNE</t>
+  </si>
+  <si>
     <t>MEDIPLEX</t>
   </si>
   <si>
+    <t>PIK-ORL</t>
+  </si>
+  <si>
     <t>midP</t>
   </si>
   <si>
     <t>CRYOSE01</t>
   </si>
   <si>
-    <t>SBRT</t>
-  </si>
-  <si>
-    <t>CICAFIX</t>
-  </si>
-  <si>
     <t>BIBW2992ORL</t>
   </si>
   <si>
-    <t>ONCOVID-21</t>
+    <t>IMMUNONCOVID</t>
+  </si>
+  <si>
+    <t>PROFILER 02</t>
   </si>
   <si>
     <t>CICA-RT 
  CICA-RT</t>
   </si>
   <si>
-    <t>IMMUNONCOVID</t>
-  </si>
-  <si>
-    <t>PROFILER 02</t>
+    <t>ONCOVID-21</t>
+  </si>
+  <si>
+    <t>SBRT</t>
+  </si>
+  <si>
+    <t>CICAFIX</t>
+  </si>
+  <si>
+    <t>ABORL</t>
+  </si>
+  <si>
+    <t>DISCO</t>
   </si>
   <si>
     <t>CATRIPCA</t>
@@ -682,40 +726,44 @@
     <t>ISI-JX</t>
   </si>
   <si>
-    <t>DISCO</t>
-  </si>
-  <si>
-    <t>ABORL</t>
-  </si>
-  <si>
     <t>NP137</t>
   </si>
   <si>
+    <t>TRAHD</t>
+  </si>
+  <si>
+    <t>LIBELULE</t>
+  </si>
+  <si>
+    <t>ImadGist</t>
+  </si>
+  <si>
     <t>CS3T</t>
   </si>
   <si>
-    <t>LIBELULE</t>
-  </si>
-  <si>
-    <t>ImadGist</t>
-  </si>
-  <si>
     <t>OCAPI</t>
   </si>
   <si>
-    <t>TRAHD</t>
-  </si>
-  <si>
     <t>LENVAGIST</t>
   </si>
   <si>
-    <t>ERICA</t>
+    <t>PARPi-PANC 
+ PARPi-PANC</t>
   </si>
   <si>
     <t>Frail-Immune 
  Frail-Immune</t>
   </si>
   <si>
+    <t>ERICA</t>
+  </si>
+  <si>
+    <t>EVAADE</t>
+  </si>
+  <si>
+    <t>PREFAcE</t>
+  </si>
+  <si>
     <t>FRAIL-IMMUNE</t>
   </si>
   <si>
@@ -725,10 +773,11 @@
     <t>CABRAMET</t>
   </si>
   <si>
-    <t>EVAADE</t>
-  </si>
-  <si>
     <t>BreastImmune03</t>
+  </si>
+  <si>
+    <t>NANO-RT-MSK 
+ NANO-RT-MSK</t>
   </si>
   <si>
     <t>ABORL 
@@ -756,10 +805,13 @@
     <t>PROCEDURE</t>
   </si>
   <si>
+    <t>GENETIC</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
     <t>DIAGNOSTIC_TEST</t>
-  </si>
-  <si>
-    <t>GENETIC</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
@@ -1120,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1166,13 +1218,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1186,13 +1238,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1206,16 +1258,16 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="I4" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1229,16 +1281,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="H5" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="I5" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1252,13 +1304,13 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1272,16 +1324,16 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="I7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1295,102 +1347,111 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="I8" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" t="s">
-        <v>187</v>
+        <v>132</v>
+      </c>
+      <c r="I9" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
+        <v>200</v>
       </c>
       <c r="I10" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="I11" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="I12" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1401,22 +1462,22 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="I13" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1427,36 +1488,39 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="I14" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>138</v>
+      </c>
+      <c r="H15" t="s">
+        <v>204</v>
       </c>
       <c r="I15" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1467,22 +1531,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H16" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="I16" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1493,65 +1557,65 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="I17" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="I19" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1562,39 +1626,39 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="I20" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H21" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="I21" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1605,42 +1669,45 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H22" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I22" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="I23" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1651,39 +1718,42 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H24" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>148</v>
+      </c>
+      <c r="H25" t="s">
+        <v>210</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1694,68 +1764,68 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H26" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="I27" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="I28" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1766,68 +1836,68 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H29" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="I29" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H30" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H31" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="I31" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1838,19 +1908,19 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H32" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="I32" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1861,22 +1931,22 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H33" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1887,19 +1957,22 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H34" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I34" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1910,22 +1983,22 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="H35" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="I35" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1936,19 +2009,19 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G36" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H36" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="I36" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1959,65 +2032,71 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G37" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H37" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="I37" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G38" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H38" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="I38" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H39" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="I39" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2028,19 +2107,19 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H40" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="I40" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2051,16 +2130,16 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G41" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="I41" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2070,23 +2149,20 @@
       <c r="B42" t="s">
         <v>15</v>
       </c>
-      <c r="C42" t="s">
-        <v>56</v>
-      </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G42" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="H42" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="I42" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2100,36 +2176,39 @@
         <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G43" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H43" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="I43" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" t="s">
-        <v>90</v>
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H44" t="s">
-        <v>215</v>
+        <v>228</v>
+      </c>
+      <c r="I44" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2140,19 +2219,19 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G45" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H45" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="I45" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2163,19 +2242,19 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G46" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="H46" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="I46" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2186,111 +2265,114 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G47" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H47" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="I47" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G48" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H48" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="I48" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G49" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H49" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="I49" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G50" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="H50" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="I50" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F51" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G51" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H51" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="I51" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2301,19 +2383,19 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F52" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G52" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H52" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="I52" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2324,19 +2406,22 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="D53" t="s">
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G53" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="H53" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="I53" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2347,42 +2432,39 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G54" t="s">
-        <v>166</v>
-      </c>
-      <c r="H54" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="I54" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G55" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H55" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I55" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2393,36 +2475,39 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="I56" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G57" t="s">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="H57" t="s">
+        <v>239</v>
       </c>
       <c r="I57" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2433,19 +2518,22 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="E58" t="s">
+        <v>105</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G58" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="H58" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="I58" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2455,66 +2543,66 @@
       <c r="B59" t="s">
         <v>13</v>
       </c>
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" t="s">
-        <v>94</v>
+      <c r="D59" t="s">
+        <v>100</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G59" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H59" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="I59" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" t="s">
-        <v>73</v>
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>101</v>
       </c>
       <c r="F60" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G60" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H60" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="I60" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s">
-        <v>91</v>
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G61" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="H61" t="s">
-        <v>230</v>
+        <v>243</v>
+      </c>
+      <c r="I61" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2528,16 +2616,16 @@
         <v>74</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G62" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H62" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="I62" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2551,16 +2639,16 @@
         <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G63" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="H63" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="I63" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2573,20 +2661,17 @@
       <c r="C64" t="s">
         <v>76</v>
       </c>
-      <c r="E64" t="s">
-        <v>95</v>
-      </c>
       <c r="F64" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G64" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H64" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="I64" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2600,16 +2685,16 @@
         <v>77</v>
       </c>
       <c r="F65" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G65" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H65" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="I65" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2619,14 +2704,23 @@
       <c r="B66" t="s">
         <v>13</v>
       </c>
-      <c r="D66" t="s">
-        <v>92</v>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" t="s">
+        <v>124</v>
       </c>
       <c r="G66" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H66" t="s">
-        <v>235</v>
+        <v>248</v>
+      </c>
+      <c r="I66" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2637,50 +2731,56 @@
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G67" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H67" t="s">
-        <v>236</v>
+        <v>249</v>
+      </c>
+      <c r="I67" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" t="s">
-        <v>78</v>
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>103</v>
       </c>
       <c r="G68" t="s">
-        <v>180</v>
+        <v>191</v>
+      </c>
+      <c r="H68" t="s">
+        <v>250</v>
       </c>
       <c r="I68" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" t="s">
-        <v>79</v>
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>104</v>
       </c>
       <c r="G69" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H69" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="I69" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2691,13 +2791,50 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s">
+        <v>193</v>
+      </c>
+      <c r="I70" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
         <v>80</v>
       </c>
-      <c r="G70" t="s">
-        <v>182</v>
-      </c>
-      <c r="I70" t="s">
-        <v>239</v>
+      <c r="G71" t="s">
+        <v>194</v>
+      </c>
+      <c r="H71" t="s">
+        <v>252</v>
+      </c>
+      <c r="I71" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s">
+        <v>195</v>
+      </c>
+      <c r="I72" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
